--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,11 +541,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gpt4_cw_tree_of_thought_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -554,11 +554,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gpt4_cw_zero_shot_cot_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -567,11 +567,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>td3_cw_ape_zero_shot_cot_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -580,11 +580,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>td3_cw_direct_prompting_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -593,11 +593,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>td3_cw_least_to_most_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -606,11 +606,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>td3_cw_manual_cot_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -619,11 +619,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>td3_cw_manual_few_shot_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -632,11 +632,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>td3_cw_self_refine_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -645,11 +645,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>td3_cw_tree_of_thought_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -658,15 +658,2589 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>td3_cw_zero_shot_cot_responses</t>
+          <t>gpt4_cw_self_refine_responses</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>17</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>19</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>21</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>24</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>26</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>27</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>28</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>29</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>30</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>31</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>32</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>33</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>34</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>35</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>36</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>37</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>38</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>39</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>40</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>41</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>42</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>43</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>44</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>45</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>46</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>47</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>48</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>49</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>51</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>52</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>53</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>54</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>55</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>56</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>57</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>58</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>59</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>60</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>61</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>62</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>63</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>64</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>65</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>66</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>67</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>68</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>69</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>70</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>71</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>72</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>73</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>74</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>75</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>76</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>77</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>78</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>79</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>80</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>81</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>82</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>83</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>84</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>85</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>86</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>87</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>88</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>89</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>90</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>91</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>92</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>93</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>94</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>95</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>96</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>97</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>98</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>99</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>gpt4_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>100</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>4</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>7</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>8</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>9</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>10</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>11</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>12</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>13</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>14</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>15</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>16</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>17</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>18</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>19</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>20</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>21</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>22</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>23</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>24</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>25</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>26</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>27</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>28</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>29</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>30</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>31</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>32</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>33</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>34</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>35</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>36</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>37</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>38</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>39</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>40</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>41</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>42</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>43</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>44</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>45</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>46</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>47</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>48</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>49</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>50</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>51</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>52</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>53</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>54</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>55</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>56</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>57</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>58</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>59</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>60</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>61</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>62</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>63</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>64</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>65</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>66</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>67</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>68</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>69</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>70</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>71</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>72</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>73</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>74</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>75</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>76</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>77</v>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>78</v>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>79</v>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>80</v>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>81</v>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>82</v>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>83</v>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>84</v>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>85</v>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>86</v>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>87</v>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>88</v>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>89</v>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>90</v>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>91</v>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>92</v>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>93</v>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>94</v>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>95</v>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>96</v>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>97</v>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>98</v>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>99</v>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>gpt4_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>100</v>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>gpt4_cw_zero_shot_cot_responses</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>td3_cw_ape_zero_shot_cot_responses</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>td3_cw_direct_prompting_responses</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>td3_cw_least_to_most_responses</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>td3_cw_manual_cot_responses</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>td3_cw_manual_few_shot_responses</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>td3_cw_self_refine_responses</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>td3_cw_tree_of_thought_responses</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>td3_cw_zero_shot_cot_responses</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF36B927-FA52-4058-9E8E-1DC1396FA117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E9A56-331F-4DEA-883D-D0CCF4E2B1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,9 +450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B402" sqref="B402"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E512" sqref="E512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4578,7 +4578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -4586,87 +4586,177 @@
         <v>100</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>9</v>
       </c>
       <c r="B402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>9</v>
       </c>
       <c r="B403">
         <v>2</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C403">
+        <v>5</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>9</v>
       </c>
       <c r="B404">
         <v>3</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C404">
+        <v>4</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>9</v>
       </c>
       <c r="B405">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C405">
+        <v>7</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>9</v>
       </c>
       <c r="B406">
         <v>5</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>9</v>
       </c>
       <c r="B407">
         <v>6</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>9</v>
       </c>
       <c r="B408">
         <v>7</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C408">
+        <v>3</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+      <c r="E408">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>9</v>
       </c>
       <c r="B409">
         <v>8</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C409">
+        <v>6</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>9</v>
       </c>
       <c r="B410">
         <v>9</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C410">
+        <v>10</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+      <c r="E410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>9</v>
       </c>
       <c r="B411">
         <v>10</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C411">
+        <v>4</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="E411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>9</v>
       </c>
@@ -4674,7 +4764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -4690,7 +4780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -4698,7 +4788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -5346,7 +5436,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -5354,7 +5444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>9</v>
       </c>
@@ -5362,7 +5452,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -5370,7 +5460,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>9</v>
       </c>
@@ -5378,7 +5468,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -5386,87 +5476,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>10</v>
       </c>
       <c r="B502">
         <v>1</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C502">
+        <v>5</v>
+      </c>
+      <c r="E502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>10</v>
       </c>
       <c r="B503">
         <v>2</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C503">
+        <v>6</v>
+      </c>
+      <c r="E503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>10</v>
       </c>
       <c r="B504">
         <v>3</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C504">
+        <v>7</v>
+      </c>
+      <c r="E504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>10</v>
       </c>
       <c r="B505">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C505">
+        <v>8</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>10</v>
       </c>
       <c r="B506">
         <v>5</v>
       </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C506">
+        <v>4</v>
+      </c>
+      <c r="E506">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>10</v>
       </c>
       <c r="B507">
         <v>6</v>
       </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C507">
+        <v>4</v>
+      </c>
+      <c r="E507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>10</v>
       </c>
       <c r="B508">
         <v>7</v>
       </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C508">
+        <v>3</v>
+      </c>
+      <c r="E508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>10</v>
       </c>
       <c r="B509">
         <v>8</v>
       </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C509">
+        <v>3</v>
+      </c>
+      <c r="E509">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>10</v>
       </c>
       <c r="B510">
         <v>9</v>
       </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C510">
+        <v>3</v>
+      </c>
+      <c r="E510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>10</v>
       </c>
       <c r="B511">
         <v>10</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C511">
+        <v>4</v>
+      </c>
+      <c r="E511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>10</v>
       </c>

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E9A56-331F-4DEA-883D-D0CCF4E2B1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D8C37A-340A-41F3-ACB2-78099C4E1212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E512" sqref="E512"/>
+      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1512" sqref="E1512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6264,7 +6264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>10</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>10</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>10</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>10</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>10</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>10</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>10</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>10</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>10</v>
       </c>
@@ -6336,87 +6336,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>11</v>
       </c>
       <c r="B602">
         <v>1</v>
       </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>11</v>
       </c>
       <c r="B603">
         <v>2</v>
       </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C603">
+        <v>3</v>
+      </c>
+      <c r="E603">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>11</v>
       </c>
       <c r="B604">
         <v>3</v>
       </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>11</v>
       </c>
       <c r="B605">
         <v>4</v>
       </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C605">
+        <v>6</v>
+      </c>
+      <c r="E605">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>11</v>
       </c>
       <c r="B606">
         <v>5</v>
       </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C606">
+        <v>3</v>
+      </c>
+      <c r="E606">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>11</v>
       </c>
       <c r="B607">
         <v>6</v>
       </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C607">
+        <v>2</v>
+      </c>
+      <c r="E607">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>11</v>
       </c>
       <c r="B608">
         <v>7</v>
       </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C608">
+        <v>6</v>
+      </c>
+      <c r="E608">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>11</v>
       </c>
       <c r="B609">
         <v>8</v>
       </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C609">
+        <v>3</v>
+      </c>
+      <c r="E609">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>11</v>
       </c>
       <c r="B610">
         <v>9</v>
       </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C610">
+        <v>8</v>
+      </c>
+      <c r="E610">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>11</v>
       </c>
       <c r="B611">
         <v>10</v>
       </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C611">
+        <v>5</v>
+      </c>
+      <c r="E611">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>11</v>
       </c>
@@ -6424,7 +6484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>11</v>
       </c>
@@ -6432,7 +6492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>11</v>
       </c>
@@ -6440,7 +6500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>11</v>
       </c>
@@ -6448,7 +6508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>11</v>
       </c>
@@ -6456,7 +6516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>11</v>
       </c>
@@ -6464,7 +6524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>11</v>
       </c>
@@ -6472,7 +6532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>11</v>
       </c>
@@ -6480,7 +6540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>11</v>
       </c>
@@ -6488,7 +6548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>11</v>
       </c>
@@ -6496,7 +6556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>11</v>
       </c>
@@ -6504,7 +6564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>11</v>
       </c>
@@ -6512,7 +6572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>11</v>
       </c>
@@ -7032,7 +7092,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>11</v>
       </c>
@@ -7040,7 +7100,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>11</v>
       </c>
@@ -7048,7 +7108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>11</v>
       </c>
@@ -7056,7 +7116,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>11</v>
       </c>
@@ -7064,7 +7124,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>11</v>
       </c>
@@ -7072,7 +7132,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>11</v>
       </c>
@@ -7080,7 +7140,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>11</v>
       </c>
@@ -7088,7 +7148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>11</v>
       </c>
@@ -7096,7 +7156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>11</v>
       </c>
@@ -7104,7 +7164,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>11</v>
       </c>
@@ -7112,7 +7172,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>11</v>
       </c>
@@ -7120,7 +7180,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>11</v>
       </c>
@@ -7128,7 +7188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>11</v>
       </c>
@@ -7136,87 +7196,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>12</v>
       </c>
       <c r="B702">
         <v>1</v>
       </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C702">
+        <v>5</v>
+      </c>
+      <c r="E702">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>12</v>
       </c>
       <c r="B703">
         <v>2</v>
       </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C703">
+        <v>7</v>
+      </c>
+      <c r="E703">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>12</v>
       </c>
       <c r="B704">
         <v>3</v>
       </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C704">
+        <v>3</v>
+      </c>
+      <c r="E704">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>12</v>
       </c>
       <c r="B705">
         <v>4</v>
       </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C705">
+        <v>4</v>
+      </c>
+      <c r="E705">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>12</v>
       </c>
       <c r="B706">
         <v>5</v>
       </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C706">
+        <v>1</v>
+      </c>
+      <c r="E706">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>12</v>
       </c>
       <c r="B707">
         <v>6</v>
       </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C707">
+        <v>2</v>
+      </c>
+      <c r="E707">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>12</v>
       </c>
       <c r="B708">
         <v>7</v>
       </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C708">
+        <v>1</v>
+      </c>
+      <c r="E708">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>12</v>
       </c>
       <c r="B709">
         <v>8</v>
       </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C709">
+        <v>7</v>
+      </c>
+      <c r="E709">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>12</v>
       </c>
       <c r="B710">
         <v>9</v>
       </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C710">
+        <v>5</v>
+      </c>
+      <c r="E710">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>12</v>
       </c>
       <c r="B711">
         <v>10</v>
       </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C711">
+        <v>9</v>
+      </c>
+      <c r="E711">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>12</v>
       </c>
@@ -7224,7 +7344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>12</v>
       </c>
@@ -7232,7 +7352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>12</v>
       </c>
@@ -7240,7 +7360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>12</v>
       </c>
@@ -7248,7 +7368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>12</v>
       </c>
@@ -7256,7 +7376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>12</v>
       </c>
@@ -7264,7 +7384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>12</v>
       </c>
@@ -7272,7 +7392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>12</v>
       </c>
@@ -7280,7 +7400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>12</v>
       </c>
@@ -7928,7 +8048,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>12</v>
       </c>
@@ -7936,87 +8056,177 @@
         <v>100</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>13</v>
       </c>
       <c r="B802">
         <v>1</v>
       </c>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C802">
+        <v>1</v>
+      </c>
+      <c r="D802">
+        <v>0</v>
+      </c>
+      <c r="E802">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>13</v>
       </c>
       <c r="B803">
         <v>2</v>
       </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C803">
+        <v>6</v>
+      </c>
+      <c r="D803">
+        <v>0</v>
+      </c>
+      <c r="E803">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>13</v>
       </c>
       <c r="B804">
         <v>3</v>
       </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C804">
+        <v>1</v>
+      </c>
+      <c r="D804">
+        <v>1</v>
+      </c>
+      <c r="E804">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>13</v>
       </c>
       <c r="B805">
         <v>4</v>
       </c>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C805">
+        <v>5</v>
+      </c>
+      <c r="D805">
+        <v>1</v>
+      </c>
+      <c r="E805">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>13</v>
       </c>
       <c r="B806">
         <v>5</v>
       </c>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C806">
+        <v>7</v>
+      </c>
+      <c r="D806">
+        <v>0</v>
+      </c>
+      <c r="E806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>13</v>
       </c>
       <c r="B807">
         <v>6</v>
       </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C807">
+        <v>1</v>
+      </c>
+      <c r="D807">
+        <v>1</v>
+      </c>
+      <c r="E807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>13</v>
       </c>
       <c r="B808">
         <v>7</v>
       </c>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C808">
+        <v>8</v>
+      </c>
+      <c r="D808">
+        <v>0</v>
+      </c>
+      <c r="E808">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>13</v>
       </c>
       <c r="B809">
         <v>8</v>
       </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C809">
+        <v>8</v>
+      </c>
+      <c r="D809">
+        <v>1</v>
+      </c>
+      <c r="E809">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>13</v>
       </c>
       <c r="B810">
         <v>9</v>
       </c>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C810">
+        <v>10</v>
+      </c>
+      <c r="D810">
+        <v>0</v>
+      </c>
+      <c r="E810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>13</v>
       </c>
       <c r="B811">
         <v>10</v>
       </c>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C811">
+        <v>2</v>
+      </c>
+      <c r="D811">
+        <v>1</v>
+      </c>
+      <c r="E811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>13</v>
       </c>
@@ -8024,7 +8234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>13</v>
       </c>
@@ -8032,7 +8242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>13</v>
       </c>
@@ -8040,7 +8250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>13</v>
       </c>
@@ -8048,7 +8258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>13</v>
       </c>
@@ -8696,7 +8906,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>13</v>
       </c>
@@ -8704,7 +8914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>13</v>
       </c>
@@ -8712,7 +8922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>13</v>
       </c>
@@ -8720,7 +8930,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>13</v>
       </c>
@@ -8728,7 +8938,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>13</v>
       </c>
@@ -8736,87 +8946,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>14</v>
       </c>
       <c r="B902">
         <v>1</v>
       </c>
-    </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C902">
+        <v>8</v>
+      </c>
+      <c r="E902">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>14</v>
       </c>
       <c r="B903">
         <v>2</v>
       </c>
-    </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C903">
+        <v>8</v>
+      </c>
+      <c r="E903">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>14</v>
       </c>
       <c r="B904">
         <v>3</v>
       </c>
-    </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C904">
+        <v>3</v>
+      </c>
+      <c r="E904">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>14</v>
       </c>
       <c r="B905">
         <v>4</v>
       </c>
-    </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C905">
+        <v>7</v>
+      </c>
+      <c r="E905">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>14</v>
       </c>
       <c r="B906">
         <v>5</v>
       </c>
-    </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C906">
+        <v>2</v>
+      </c>
+      <c r="E906">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>14</v>
       </c>
       <c r="B907">
         <v>6</v>
       </c>
-    </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C907">
+        <v>1</v>
+      </c>
+      <c r="E907">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>14</v>
       </c>
       <c r="B908">
         <v>7</v>
       </c>
-    </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C908">
+        <v>9</v>
+      </c>
+      <c r="E908">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>14</v>
       </c>
       <c r="B909">
         <v>8</v>
       </c>
-    </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C909">
+        <v>6</v>
+      </c>
+      <c r="E909">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>14</v>
       </c>
       <c r="B910">
         <v>9</v>
       </c>
-    </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C910">
+        <v>7</v>
+      </c>
+      <c r="E910">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>14</v>
       </c>
       <c r="B911">
         <v>10</v>
       </c>
-    </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C911">
+        <v>5</v>
+      </c>
+      <c r="E911">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>14</v>
       </c>
@@ -9464,7 +9734,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>14</v>
       </c>
@@ -9472,7 +9742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>14</v>
       </c>
@@ -9480,7 +9750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>14</v>
       </c>
@@ -9488,7 +9758,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>14</v>
       </c>
@@ -9496,7 +9766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>14</v>
       </c>
@@ -9504,7 +9774,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>14</v>
       </c>
@@ -9512,7 +9782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>14</v>
       </c>
@@ -9520,7 +9790,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>14</v>
       </c>
@@ -9528,7 +9798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>14</v>
       </c>
@@ -9536,87 +9806,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
         <v>15</v>
       </c>
       <c r="B1002">
         <v>1</v>
       </c>
-    </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1002">
+        <v>5</v>
+      </c>
+      <c r="E1002">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
         <v>15</v>
       </c>
       <c r="B1003">
         <v>2</v>
       </c>
-    </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1003">
+        <v>7</v>
+      </c>
+      <c r="E1003">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
         <v>15</v>
       </c>
       <c r="B1004">
         <v>3</v>
       </c>
-    </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1004">
+        <v>3</v>
+      </c>
+      <c r="E1004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
         <v>15</v>
       </c>
       <c r="B1005">
         <v>4</v>
       </c>
-    </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1005">
+        <v>8</v>
+      </c>
+      <c r="E1005">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
         <v>15</v>
       </c>
       <c r="B1006">
         <v>5</v>
       </c>
-    </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1006">
+        <v>4</v>
+      </c>
+      <c r="E1006">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
         <v>15</v>
       </c>
       <c r="B1007">
         <v>6</v>
       </c>
-    </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1007">
+        <v>1</v>
+      </c>
+      <c r="E1007">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
         <v>15</v>
       </c>
       <c r="B1008">
         <v>7</v>
       </c>
-    </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1008">
+        <v>4</v>
+      </c>
+      <c r="E1008">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
         <v>15</v>
       </c>
       <c r="B1009">
         <v>8</v>
       </c>
-    </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1009">
+        <v>3</v>
+      </c>
+      <c r="E1009">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
         <v>15</v>
       </c>
       <c r="B1010">
         <v>9</v>
       </c>
-    </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1010">
+        <v>9</v>
+      </c>
+      <c r="E1010">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
         <v>15</v>
       </c>
       <c r="B1011">
         <v>10</v>
       </c>
-    </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1011">
+        <v>9</v>
+      </c>
+      <c r="E1011">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
         <v>15</v>
       </c>
@@ -9624,7 +9954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
         <v>15</v>
       </c>
@@ -9632,7 +9962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
         <v>15</v>
       </c>
@@ -9640,7 +9970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
         <v>15</v>
       </c>
@@ -9648,7 +9978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
         <v>15</v>
       </c>
@@ -9656,7 +9986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
         <v>15</v>
       </c>
@@ -9664,7 +9994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
         <v>15</v>
       </c>
@@ -9672,7 +10002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
         <v>15</v>
       </c>
@@ -9680,7 +10010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
         <v>15</v>
       </c>
@@ -9688,7 +10018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
         <v>15</v>
       </c>
@@ -9696,7 +10026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
         <v>15</v>
       </c>
@@ -9704,7 +10034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
         <v>15</v>
       </c>
@@ -9712,7 +10042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
         <v>15</v>
       </c>
@@ -10232,7 +10562,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
         <v>15</v>
       </c>
@@ -10240,7 +10570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
         <v>15</v>
       </c>
@@ -10248,7 +10578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
         <v>15</v>
       </c>
@@ -10256,7 +10586,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
         <v>15</v>
       </c>
@@ -10264,7 +10594,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1093" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
         <v>15</v>
       </c>
@@ -10272,7 +10602,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
         <v>15</v>
       </c>
@@ -10280,7 +10610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
         <v>15</v>
       </c>
@@ -10288,7 +10618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
         <v>15</v>
       </c>
@@ -10296,7 +10626,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
         <v>15</v>
       </c>
@@ -10304,7 +10634,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
         <v>15</v>
       </c>
@@ -10312,7 +10642,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
         <v>15</v>
       </c>
@@ -10320,7 +10650,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
         <v>15</v>
       </c>
@@ -10328,7 +10658,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
         <v>15</v>
       </c>
@@ -10336,87 +10666,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
         <v>16</v>
       </c>
       <c r="B1102">
         <v>1</v>
       </c>
-    </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1102">
+        <v>9</v>
+      </c>
+      <c r="E1102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
         <v>16</v>
       </c>
       <c r="B1103">
         <v>2</v>
       </c>
-    </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1103">
+        <v>6</v>
+      </c>
+      <c r="E1103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
         <v>16</v>
       </c>
       <c r="B1104">
         <v>3</v>
       </c>
-    </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1104">
+        <v>2</v>
+      </c>
+      <c r="E1104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
         <v>16</v>
       </c>
       <c r="B1105">
         <v>4</v>
       </c>
-    </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1105">
+        <v>7</v>
+      </c>
+      <c r="E1105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
         <v>16</v>
       </c>
       <c r="B1106">
         <v>5</v>
       </c>
-    </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1106">
+        <v>5</v>
+      </c>
+      <c r="E1106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
         <v>16</v>
       </c>
       <c r="B1107">
         <v>6</v>
       </c>
-    </row>
-    <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1107">
+        <v>3</v>
+      </c>
+      <c r="E1107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
         <v>16</v>
       </c>
       <c r="B1108">
         <v>7</v>
       </c>
-    </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1108">
+        <v>5</v>
+      </c>
+      <c r="E1108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
         <v>16</v>
       </c>
       <c r="B1109">
         <v>8</v>
       </c>
-    </row>
-    <row r="1110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1109">
+        <v>4</v>
+      </c>
+      <c r="E1109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
         <v>16</v>
       </c>
       <c r="B1110">
         <v>9</v>
       </c>
-    </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1110">
+        <v>8</v>
+      </c>
+      <c r="E1110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
         <v>16</v>
       </c>
       <c r="B1111">
         <v>10</v>
       </c>
-    </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1111">
+        <v>2</v>
+      </c>
+      <c r="E1111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
         <v>16</v>
       </c>
@@ -10424,7 +10814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
         <v>16</v>
       </c>
@@ -10432,7 +10822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
         <v>16</v>
       </c>
@@ -10440,7 +10830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
         <v>16</v>
       </c>
@@ -10448,7 +10838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
         <v>16</v>
       </c>
@@ -10456,7 +10846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
         <v>16</v>
       </c>
@@ -10464,7 +10854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
         <v>16</v>
       </c>
@@ -10472,7 +10862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
         <v>16</v>
       </c>
@@ -10480,7 +10870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
         <v>16</v>
       </c>
@@ -11128,7 +11518,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
         <v>16</v>
       </c>
@@ -11136,87 +11526,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
         <v>17</v>
       </c>
       <c r="B1202">
         <v>1</v>
       </c>
-    </row>
-    <row r="1203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1202">
+        <v>1</v>
+      </c>
+      <c r="E1202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
         <v>17</v>
       </c>
       <c r="B1203">
         <v>2</v>
       </c>
-    </row>
-    <row r="1204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1203">
+        <v>8</v>
+      </c>
+      <c r="E1203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
         <v>17</v>
       </c>
       <c r="B1204">
         <v>3</v>
       </c>
-    </row>
-    <row r="1205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1204">
+        <v>8</v>
+      </c>
+      <c r="E1204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
         <v>17</v>
       </c>
       <c r="B1205">
         <v>4</v>
       </c>
-    </row>
-    <row r="1206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1205">
+        <v>6</v>
+      </c>
+      <c r="E1205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
         <v>17</v>
       </c>
       <c r="B1206">
         <v>5</v>
       </c>
-    </row>
-    <row r="1207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1206">
+        <v>5</v>
+      </c>
+      <c r="E1206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
         <v>17</v>
       </c>
       <c r="B1207">
         <v>6</v>
       </c>
-    </row>
-    <row r="1208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1207">
+        <v>7</v>
+      </c>
+      <c r="E1207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
         <v>17</v>
       </c>
       <c r="B1208">
         <v>7</v>
       </c>
-    </row>
-    <row r="1209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1208">
+        <v>3</v>
+      </c>
+      <c r="E1208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
         <v>17</v>
       </c>
       <c r="B1209">
         <v>8</v>
       </c>
-    </row>
-    <row r="1210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1209">
+        <v>3</v>
+      </c>
+      <c r="E1209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
         <v>17</v>
       </c>
       <c r="B1210">
         <v>9</v>
       </c>
-    </row>
-    <row r="1211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1210">
+        <v>9</v>
+      </c>
+      <c r="E1210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
         <v>17</v>
       </c>
       <c r="B1211">
         <v>10</v>
       </c>
-    </row>
-    <row r="1212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1211">
+        <v>2</v>
+      </c>
+      <c r="E1211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
         <v>17</v>
       </c>
@@ -11224,7 +11674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
         <v>17</v>
       </c>
@@ -11232,7 +11682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
         <v>17</v>
       </c>
@@ -11240,7 +11690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
         <v>17</v>
       </c>
@@ -11248,7 +11698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
         <v>17</v>
       </c>
@@ -11896,7 +12346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
         <v>17</v>
       </c>
@@ -11904,7 +12354,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="1298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
         <v>17</v>
       </c>
@@ -11912,7 +12362,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
         <v>17</v>
       </c>
@@ -11920,7 +12370,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
         <v>17</v>
       </c>
@@ -11928,7 +12378,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
         <v>17</v>
       </c>
@@ -11936,87 +12386,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
         <v>18</v>
       </c>
       <c r="B1302">
         <v>1</v>
       </c>
-    </row>
-    <row r="1303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1302">
+        <v>7</v>
+      </c>
+      <c r="E1302">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
         <v>18</v>
       </c>
       <c r="B1303">
         <v>2</v>
       </c>
-    </row>
-    <row r="1304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1303">
+        <v>3</v>
+      </c>
+      <c r="E1303">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
         <v>18</v>
       </c>
       <c r="B1304">
         <v>3</v>
       </c>
-    </row>
-    <row r="1305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1304">
+        <v>3</v>
+      </c>
+      <c r="E1304">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
         <v>18</v>
       </c>
       <c r="B1305">
         <v>4</v>
       </c>
-    </row>
-    <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1305">
+        <v>6</v>
+      </c>
+      <c r="E1305">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
         <v>18</v>
       </c>
       <c r="B1306">
         <v>5</v>
       </c>
-    </row>
-    <row r="1307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1306">
+        <v>6</v>
+      </c>
+      <c r="E1306">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
         <v>18</v>
       </c>
       <c r="B1307">
         <v>6</v>
       </c>
-    </row>
-    <row r="1308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1307">
+        <v>2</v>
+      </c>
+      <c r="E1307">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
         <v>18</v>
       </c>
       <c r="B1308">
         <v>7</v>
       </c>
-    </row>
-    <row r="1309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1308">
+        <v>3</v>
+      </c>
+      <c r="E1308">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
         <v>18</v>
       </c>
       <c r="B1309">
         <v>8</v>
       </c>
-    </row>
-    <row r="1310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1309">
+        <v>8</v>
+      </c>
+      <c r="E1309">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
         <v>18</v>
       </c>
       <c r="B1310">
         <v>9</v>
       </c>
-    </row>
-    <row r="1311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1310">
+        <v>10</v>
+      </c>
+      <c r="E1310">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
         <v>18</v>
       </c>
       <c r="B1311">
         <v>10</v>
       </c>
-    </row>
-    <row r="1312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1311">
+        <v>1</v>
+      </c>
+      <c r="E1311">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
         <v>18</v>
       </c>
@@ -12664,7 +13174,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1393" t="s">
         <v>18</v>
       </c>
@@ -12672,7 +13182,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
         <v>18</v>
       </c>
@@ -12680,7 +13190,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1395" t="s">
         <v>18</v>
       </c>
@@ -12688,7 +13198,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1396" t="s">
         <v>18</v>
       </c>
@@ -12696,7 +13206,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
         <v>18</v>
       </c>
@@ -12704,7 +13214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="1398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1398" t="s">
         <v>18</v>
       </c>
@@ -12712,7 +13222,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1399" t="s">
         <v>18</v>
       </c>
@@ -12720,7 +13230,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1400" t="s">
         <v>18</v>
       </c>
@@ -12728,7 +13238,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1401" t="s">
         <v>18</v>
       </c>
@@ -12736,87 +13246,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1402" t="s">
         <v>19</v>
       </c>
       <c r="B1402">
         <v>1</v>
       </c>
-    </row>
-    <row r="1403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1402">
+        <v>8</v>
+      </c>
+      <c r="E1402">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1403" t="s">
         <v>19</v>
       </c>
       <c r="B1403">
         <v>2</v>
       </c>
-    </row>
-    <row r="1404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1403">
+        <v>9</v>
+      </c>
+      <c r="E1403">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1404" t="s">
         <v>19</v>
       </c>
       <c r="B1404">
         <v>3</v>
       </c>
-    </row>
-    <row r="1405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1404">
+        <v>8</v>
+      </c>
+      <c r="E1404">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1405" t="s">
         <v>19</v>
       </c>
       <c r="B1405">
         <v>4</v>
       </c>
-    </row>
-    <row r="1406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1405">
+        <v>7</v>
+      </c>
+      <c r="E1405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1406" t="s">
         <v>19</v>
       </c>
       <c r="B1406">
         <v>5</v>
       </c>
-    </row>
-    <row r="1407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1406">
+        <v>8</v>
+      </c>
+      <c r="E1406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1407" t="s">
         <v>19</v>
       </c>
       <c r="B1407">
         <v>6</v>
       </c>
-    </row>
-    <row r="1408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1407">
+        <v>5</v>
+      </c>
+      <c r="E1407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1408" t="s">
         <v>19</v>
       </c>
       <c r="B1408">
         <v>7</v>
       </c>
-    </row>
-    <row r="1409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1408">
+        <v>8</v>
+      </c>
+      <c r="E1408">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
         <v>19</v>
       </c>
       <c r="B1409">
         <v>8</v>
       </c>
-    </row>
-    <row r="1410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1409">
+        <v>7</v>
+      </c>
+      <c r="E1409">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1410" t="s">
         <v>19</v>
       </c>
       <c r="B1410">
         <v>9</v>
       </c>
-    </row>
-    <row r="1411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1410">
+        <v>6</v>
+      </c>
+      <c r="E1410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1411" t="s">
         <v>19</v>
       </c>
       <c r="B1411">
         <v>10</v>
       </c>
-    </row>
-    <row r="1412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1411">
+        <v>4</v>
+      </c>
+      <c r="E1411">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1412" t="s">
         <v>19</v>
       </c>
@@ -12824,7 +13394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1413" t="s">
         <v>19</v>
       </c>
@@ -12832,7 +13402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1414" t="s">
         <v>19</v>
       </c>
@@ -12840,7 +13410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1415" t="s">
         <v>19</v>
       </c>
@@ -12848,7 +13418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
         <v>19</v>
       </c>
@@ -12856,7 +13426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1417" t="s">
         <v>19</v>
       </c>
@@ -12864,7 +13434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1418" t="s">
         <v>19</v>
       </c>
@@ -12872,7 +13442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1419" t="s">
         <v>19</v>
       </c>
@@ -12880,7 +13450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
         <v>19</v>
       </c>
@@ -12888,7 +13458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
         <v>19</v>
       </c>
@@ -12896,7 +13466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
         <v>19</v>
       </c>
@@ -12904,7 +13474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1423" t="s">
         <v>19</v>
       </c>
@@ -12912,7 +13482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
         <v>19</v>
       </c>
@@ -13432,7 +14002,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="1489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1489" t="s">
         <v>19</v>
       </c>
@@ -13440,7 +14010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1490" t="s">
         <v>19</v>
       </c>
@@ -13448,7 +14018,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1491" t="s">
         <v>19</v>
       </c>
@@ -13456,7 +14026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
         <v>19</v>
       </c>
@@ -13464,7 +14034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
         <v>19</v>
       </c>
@@ -13472,7 +14042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1494" t="s">
         <v>19</v>
       </c>
@@ -13480,7 +14050,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
         <v>19</v>
       </c>
@@ -13488,7 +14058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1496" t="s">
         <v>19</v>
       </c>
@@ -13496,7 +14066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1497" t="s">
         <v>19</v>
       </c>
@@ -13504,7 +14074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="1498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1498" t="s">
         <v>19</v>
       </c>
@@ -13512,7 +14082,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
         <v>19</v>
       </c>
@@ -13520,7 +14090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
         <v>19</v>
       </c>
@@ -13528,7 +14098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
         <v>19</v>
       </c>
@@ -13536,87 +14106,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1502" t="s">
         <v>20</v>
       </c>
       <c r="B1502">
         <v>1</v>
       </c>
-    </row>
-    <row r="1503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1502">
+        <v>8</v>
+      </c>
+      <c r="E1502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1503" t="s">
         <v>20</v>
       </c>
       <c r="B1503">
         <v>2</v>
       </c>
-    </row>
-    <row r="1504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1503">
+        <v>8</v>
+      </c>
+      <c r="E1503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1504" t="s">
         <v>20</v>
       </c>
       <c r="B1504">
         <v>3</v>
       </c>
-    </row>
-    <row r="1505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1504">
+        <v>2</v>
+      </c>
+      <c r="E1504">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1505" t="s">
         <v>20</v>
       </c>
       <c r="B1505">
         <v>4</v>
       </c>
-    </row>
-    <row r="1506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1505">
+        <v>7</v>
+      </c>
+      <c r="E1505">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1506" t="s">
         <v>20</v>
       </c>
       <c r="B1506">
         <v>5</v>
       </c>
-    </row>
-    <row r="1507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1506">
+        <v>9</v>
+      </c>
+      <c r="E1506">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1507" t="s">
         <v>20</v>
       </c>
       <c r="B1507">
         <v>6</v>
       </c>
-    </row>
-    <row r="1508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1507">
+        <v>6</v>
+      </c>
+      <c r="E1507">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1508" t="s">
         <v>20</v>
       </c>
       <c r="B1508">
         <v>7</v>
       </c>
-    </row>
-    <row r="1509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1508">
+        <v>7</v>
+      </c>
+      <c r="E1508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1509" t="s">
         <v>20</v>
       </c>
       <c r="B1509">
         <v>8</v>
       </c>
-    </row>
-    <row r="1510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1509">
+        <v>7</v>
+      </c>
+      <c r="E1509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1510" t="s">
         <v>20</v>
       </c>
       <c r="B1510">
         <v>9</v>
       </c>
-    </row>
-    <row r="1511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1510">
+        <v>8</v>
+      </c>
+      <c r="E1510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1511" t="s">
         <v>20</v>
       </c>
       <c r="B1511">
         <v>10</v>
       </c>
-    </row>
-    <row r="1512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1511">
+        <v>4</v>
+      </c>
+      <c r="E1511">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1512" t="s">
         <v>20</v>
       </c>
@@ -13624,7 +14254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1513" t="s">
         <v>20</v>
       </c>
@@ -13632,7 +14262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
         <v>20</v>
       </c>
@@ -13640,7 +14270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1515" t="s">
         <v>20</v>
       </c>
@@ -13648,7 +14278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
         <v>20</v>
       </c>
@@ -13656,7 +14286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
         <v>20</v>
       </c>
@@ -13664,7 +14294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
         <v>20</v>
       </c>
@@ -13672,7 +14302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
         <v>20</v>
       </c>
@@ -13680,7 +14310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
         <v>20</v>
       </c>

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D8C37A-340A-41F3-ACB2-78099C4E1212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62EAA11-D8A3-47AD-B0FD-11B6EBA0485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,9 +450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1512" sqref="E1512"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,376 +2057,517 @@
       <c r="B112">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
       <c r="B113">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
       <c r="B114">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
       <c r="B115">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
       <c r="B116">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
       <c r="B117">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
       <c r="B118">
         <v>17</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
       <c r="B119">
         <v>18</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
       <c r="B120">
         <v>19</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
       <c r="B121">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
       <c r="B122">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
       <c r="B123">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
       <c r="B124">
         <v>23</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
       <c r="B125">
         <v>24</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
       <c r="B126">
         <v>25</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>6</v>
       </c>
       <c r="B127">
         <v>26</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
       <c r="B128">
         <v>27</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
       <c r="B129">
         <v>28</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
       <c r="B130">
         <v>29</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
       <c r="B131">
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
       <c r="B132">
         <v>31</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
       <c r="B133">
         <v>32</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
       <c r="B134">
         <v>33</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
       <c r="B135">
         <v>34</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
       <c r="B136">
         <v>35</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
       <c r="B137">
         <v>36</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
       <c r="B138">
         <v>37</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
       <c r="B139">
         <v>38</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
       <c r="B140">
         <v>39</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
       <c r="B141">
         <v>40</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
       <c r="B142">
         <v>41</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
       <c r="B143">
         <v>42</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
       <c r="B144">
         <v>43</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
       <c r="B145">
         <v>44</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
       <c r="B146">
         <v>45</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
       <c r="B147">
         <v>46</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
       <c r="B148">
         <v>47</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
       <c r="B149">
         <v>48</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
       <c r="B150">
         <v>49</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
       <c r="B151">
         <v>50</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
       <c r="B152">
         <v>51</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
       <c r="B153">
         <v>52</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
       <c r="B154">
         <v>53</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
       <c r="B155">
         <v>54</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
       <c r="B156">
         <v>55</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
       <c r="B157">
         <v>56</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
       <c r="B158">
         <v>57</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -2434,7 +2575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62EAA11-D8A3-47AD-B0FD-11B6EBA0485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2FAEE0-423C-4167-B9E3-ECB2DA956606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2574,6 +2574,9 @@
       <c r="B159">
         <v>58</v>
       </c>
+      <c r="C159">
+        <v>8</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
@@ -2582,262 +2585,361 @@
       <c r="B160">
         <v>59</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
       <c r="B161">
         <v>60</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
       <c r="B162">
         <v>61</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
       <c r="B163">
         <v>62</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
       <c r="B164">
         <v>63</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
       <c r="B165">
         <v>64</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
       <c r="B166">
         <v>65</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
       <c r="B167">
         <v>66</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
       <c r="B168">
         <v>67</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
       <c r="B169">
         <v>68</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
       <c r="B170">
         <v>69</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
       <c r="B171">
         <v>70</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
       <c r="B172">
         <v>71</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
       <c r="B173">
         <v>72</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
       <c r="B174">
         <v>73</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175">
         <v>74</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
       <c r="B176">
         <v>75</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
       <c r="B177">
         <v>76</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
       <c r="B178">
         <v>77</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
       <c r="B179">
         <v>78</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
       <c r="B180">
         <v>79</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
       <c r="B181">
         <v>80</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
       <c r="B182">
         <v>81</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
       <c r="B183">
         <v>82</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
       <c r="B184">
         <v>83</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
       <c r="B185">
         <v>84</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
       <c r="B186">
         <v>85</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
       <c r="B187">
         <v>86</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
       <c r="B188">
         <v>87</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
       <c r="B189">
         <v>88</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
       <c r="B190">
         <v>89</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191">
         <v>90</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
       <c r="B192">
         <v>91</v>
       </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
@@ -2846,6 +2948,9 @@
       <c r="B193">
         <v>92</v>
       </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
@@ -2854,6 +2959,9 @@
       <c r="B194">
         <v>93</v>
       </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
@@ -2862,6 +2970,9 @@
       <c r="B195">
         <v>94</v>
       </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
@@ -2870,6 +2981,9 @@
       <c r="B196">
         <v>95</v>
       </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
@@ -2878,6 +2992,9 @@
       <c r="B197">
         <v>96</v>
       </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
@@ -2886,6 +3003,9 @@
       <c r="B198">
         <v>97</v>
       </c>
+      <c r="C198">
+        <v>6</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
@@ -2894,6 +3014,9 @@
       <c r="B199">
         <v>98</v>
       </c>
+      <c r="C199">
+        <v>9</v>
+      </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
@@ -2902,6 +3025,9 @@
       <c r="B200">
         <v>99</v>
       </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
@@ -2909,6 +3035,9 @@
       </c>
       <c r="B201">
         <v>100</v>
+      </c>
+      <c r="C201">
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2FAEE0-423C-4167-B9E3-ECB2DA956606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81992D-A1DC-493B-84C8-FEBC6939B19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
+      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3251,6 +3251,9 @@
       <c r="B214">
         <v>13</v>
       </c>
+      <c r="C214">
+        <v>6</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
@@ -3259,6 +3262,9 @@
       <c r="B215">
         <v>14</v>
       </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
@@ -3267,6 +3273,9 @@
       <c r="B216">
         <v>15</v>
       </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
@@ -3275,6 +3284,9 @@
       <c r="B217">
         <v>16</v>
       </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
@@ -3283,6 +3295,9 @@
       <c r="B218">
         <v>17</v>
       </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
@@ -3291,6 +3306,9 @@
       <c r="B219">
         <v>18</v>
       </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
@@ -3299,6 +3317,9 @@
       <c r="B220">
         <v>19</v>
       </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
@@ -3307,6 +3328,9 @@
       <c r="B221">
         <v>20</v>
       </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
@@ -3315,6 +3339,9 @@
       <c r="B222">
         <v>21</v>
       </c>
+      <c r="C222">
+        <v>9</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
@@ -3323,6 +3350,9 @@
       <c r="B223">
         <v>22</v>
       </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
@@ -3331,518 +3361,713 @@
       <c r="B224">
         <v>23</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>7</v>
       </c>
       <c r="B225">
         <v>24</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>7</v>
       </c>
       <c r="B226">
         <v>25</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>7</v>
       </c>
       <c r="B227">
         <v>26</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>7</v>
       </c>
       <c r="B228">
         <v>27</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>7</v>
       </c>
       <c r="B229">
         <v>28</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>7</v>
       </c>
       <c r="B230">
         <v>29</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>7</v>
       </c>
       <c r="B231">
         <v>30</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>7</v>
       </c>
       <c r="B232">
         <v>31</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>7</v>
       </c>
       <c r="B233">
         <v>32</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>7</v>
       </c>
       <c r="B234">
         <v>33</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>7</v>
       </c>
       <c r="B235">
         <v>34</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>7</v>
       </c>
       <c r="B236">
         <v>35</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>7</v>
       </c>
       <c r="B237">
         <v>36</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>7</v>
       </c>
       <c r="B238">
         <v>37</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>7</v>
       </c>
       <c r="B239">
         <v>38</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>7</v>
       </c>
       <c r="B240">
         <v>39</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>7</v>
       </c>
       <c r="B241">
         <v>40</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>7</v>
       </c>
       <c r="B242">
         <v>41</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>7</v>
       </c>
       <c r="B243">
         <v>42</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>7</v>
       </c>
       <c r="B244">
         <v>43</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>7</v>
       </c>
       <c r="B245">
         <v>44</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>7</v>
       </c>
       <c r="B246">
         <v>45</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>7</v>
       </c>
       <c r="B247">
         <v>46</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>7</v>
       </c>
       <c r="B248">
         <v>47</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>7</v>
       </c>
       <c r="B249">
         <v>48</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>7</v>
       </c>
       <c r="B250">
         <v>49</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>7</v>
       </c>
       <c r="B251">
         <v>50</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>7</v>
       </c>
       <c r="B252">
         <v>51</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>7</v>
       </c>
       <c r="B253">
         <v>52</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>7</v>
       </c>
       <c r="B254">
         <v>53</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>7</v>
       </c>
       <c r="B255">
         <v>54</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>7</v>
       </c>
       <c r="B256">
         <v>55</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>7</v>
       </c>
       <c r="B257">
         <v>56</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>7</v>
       </c>
       <c r="B258">
         <v>57</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>7</v>
       </c>
       <c r="B259">
         <v>58</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>7</v>
       </c>
       <c r="B260">
         <v>59</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>7</v>
       </c>
       <c r="B261">
         <v>60</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>7</v>
       </c>
       <c r="B262">
         <v>61</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>7</v>
       </c>
       <c r="B263">
         <v>62</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>7</v>
       </c>
       <c r="B264">
         <v>63</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>7</v>
       </c>
       <c r="B265">
         <v>64</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>7</v>
       </c>
       <c r="B266">
         <v>65</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>7</v>
       </c>
       <c r="B267">
         <v>66</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>7</v>
       </c>
       <c r="B268">
         <v>67</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>7</v>
       </c>
       <c r="B269">
         <v>68</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>7</v>
       </c>
       <c r="B270">
         <v>69</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C270">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>7</v>
       </c>
       <c r="B271">
         <v>70</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>7</v>
       </c>
       <c r="B272">
         <v>71</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>7</v>
       </c>
       <c r="B273">
         <v>72</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>7</v>
       </c>
       <c r="B274">
         <v>73</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>7</v>
       </c>
       <c r="B275">
         <v>74</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>7</v>
       </c>
       <c r="B276">
         <v>75</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C276">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>7</v>
       </c>
       <c r="B277">
         <v>76</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>7</v>
       </c>
       <c r="B278">
         <v>77</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>7</v>
       </c>
       <c r="B279">
         <v>78</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>7</v>
       </c>
       <c r="B280">
         <v>79</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>7</v>
       </c>
       <c r="B281">
         <v>80</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>7</v>
       </c>
       <c r="B282">
         <v>81</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C282">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>7</v>
       </c>
       <c r="B283">
         <v>82</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>7</v>
       </c>
       <c r="B284">
         <v>83</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>7</v>
       </c>
       <c r="B285">
         <v>84</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>7</v>
       </c>
       <c r="B286">
         <v>85</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C286">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>7</v>
       </c>
       <c r="B287">
         <v>86</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>7</v>
       </c>
       <c r="B288">
         <v>87</v>
       </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
@@ -3851,6 +4076,9 @@
       <c r="B289">
         <v>88</v>
       </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
@@ -3859,6 +4087,9 @@
       <c r="B290">
         <v>89</v>
       </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
@@ -3867,6 +4098,9 @@
       <c r="B291">
         <v>90</v>
       </c>
+      <c r="C291">
+        <v>7</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
@@ -3875,6 +4109,9 @@
       <c r="B292">
         <v>91</v>
       </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
@@ -3883,6 +4120,9 @@
       <c r="B293">
         <v>92</v>
       </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
@@ -3891,6 +4131,9 @@
       <c r="B294">
         <v>93</v>
       </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
@@ -3899,6 +4142,9 @@
       <c r="B295">
         <v>94</v>
       </c>
+      <c r="C295">
+        <v>4</v>
+      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
@@ -3907,6 +4153,9 @@
       <c r="B296">
         <v>95</v>
       </c>
+      <c r="C296">
+        <v>8</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
@@ -3915,6 +4164,9 @@
       <c r="B297">
         <v>96</v>
       </c>
+      <c r="C297">
+        <v>9</v>
+      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
@@ -3923,6 +4175,9 @@
       <c r="B298">
         <v>97</v>
       </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
@@ -3931,6 +4186,9 @@
       <c r="B299">
         <v>98</v>
       </c>
+      <c r="C299">
+        <v>6</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
@@ -3939,6 +4197,9 @@
       <c r="B300">
         <v>99</v>
       </c>
+      <c r="C300">
+        <v>3</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
@@ -3947,6 +4208,9 @@
       <c r="B301">
         <v>100</v>
       </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
@@ -4159,6 +4423,9 @@
       <c r="B314">
         <v>13</v>
       </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
@@ -4167,6 +4434,9 @@
       <c r="B315">
         <v>14</v>
       </c>
+      <c r="C315">
+        <v>8</v>
+      </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
@@ -4175,6 +4445,9 @@
       <c r="B316">
         <v>15</v>
       </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
@@ -4183,6 +4456,9 @@
       <c r="B317">
         <v>16</v>
       </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
@@ -4191,6 +4467,9 @@
       <c r="B318">
         <v>17</v>
       </c>
+      <c r="C318">
+        <v>9</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
@@ -4199,6 +4478,9 @@
       <c r="B319">
         <v>18</v>
       </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
@@ -4207,646 +4489,889 @@
       <c r="B320">
         <v>19</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>8</v>
       </c>
       <c r="B321">
         <v>20</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>8</v>
       </c>
       <c r="B322">
         <v>21</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>8</v>
       </c>
       <c r="B323">
         <v>22</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>8</v>
       </c>
       <c r="B324">
         <v>23</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>8</v>
       </c>
       <c r="B325">
         <v>24</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>8</v>
       </c>
       <c r="B326">
         <v>25</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>8</v>
       </c>
       <c r="B327">
         <v>26</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>8</v>
       </c>
       <c r="B328">
         <v>27</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C328">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>8</v>
       </c>
       <c r="B329">
         <v>28</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C329">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>8</v>
       </c>
       <c r="B330">
         <v>29</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C330">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>8</v>
       </c>
       <c r="B331">
         <v>30</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C331">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>8</v>
       </c>
       <c r="B332">
         <v>31</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C332">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>8</v>
       </c>
       <c r="B333">
         <v>32</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>8</v>
       </c>
       <c r="B334">
         <v>33</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C334">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>8</v>
       </c>
       <c r="B335">
         <v>34</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>8</v>
       </c>
       <c r="B336">
         <v>35</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>8</v>
       </c>
       <c r="B337">
         <v>36</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>8</v>
       </c>
       <c r="B338">
         <v>37</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C338">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>8</v>
       </c>
       <c r="B339">
         <v>38</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>8</v>
       </c>
       <c r="B340">
         <v>39</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>8</v>
       </c>
       <c r="B341">
         <v>40</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C341">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>8</v>
       </c>
       <c r="B342">
         <v>41</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>8</v>
       </c>
       <c r="B343">
         <v>42</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>8</v>
       </c>
       <c r="B344">
         <v>43</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>8</v>
       </c>
       <c r="B345">
         <v>44</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>8</v>
       </c>
       <c r="B346">
         <v>45</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>8</v>
       </c>
       <c r="B347">
         <v>46</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>8</v>
       </c>
       <c r="B348">
         <v>47</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>8</v>
       </c>
       <c r="B349">
         <v>48</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C349">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>8</v>
       </c>
       <c r="B350">
         <v>49</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C350">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>8</v>
       </c>
       <c r="B351">
         <v>50</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>8</v>
       </c>
       <c r="B352">
         <v>51</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>8</v>
       </c>
       <c r="B353">
         <v>52</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C353">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>8</v>
       </c>
       <c r="B354">
         <v>53</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C354">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>8</v>
       </c>
       <c r="B355">
         <v>54</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>8</v>
       </c>
       <c r="B356">
         <v>55</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>8</v>
       </c>
       <c r="B357">
         <v>56</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C357">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>8</v>
       </c>
       <c r="B358">
         <v>57</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>8</v>
       </c>
       <c r="B359">
         <v>58</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>8</v>
       </c>
       <c r="B360">
         <v>59</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C360">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>8</v>
       </c>
       <c r="B361">
         <v>60</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>8</v>
       </c>
       <c r="B362">
         <v>61</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>8</v>
       </c>
       <c r="B363">
         <v>62</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>8</v>
       </c>
       <c r="B364">
         <v>63</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C364">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>8</v>
       </c>
       <c r="B365">
         <v>64</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>8</v>
       </c>
       <c r="B366">
         <v>65</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>8</v>
       </c>
       <c r="B367">
         <v>66</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C367">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>8</v>
       </c>
       <c r="B368">
         <v>67</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>8</v>
       </c>
       <c r="B369">
         <v>68</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>8</v>
       </c>
       <c r="B370">
         <v>69</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C370">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>8</v>
       </c>
       <c r="B371">
         <v>70</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C371">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>8</v>
       </c>
       <c r="B372">
         <v>71</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>8</v>
       </c>
       <c r="B373">
         <v>72</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C373">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>8</v>
       </c>
       <c r="B374">
         <v>73</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C374">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>8</v>
       </c>
       <c r="B375">
         <v>74</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>8</v>
       </c>
       <c r="B376">
         <v>75</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C376">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>8</v>
       </c>
       <c r="B377">
         <v>76</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>8</v>
       </c>
       <c r="B378">
         <v>77</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>8</v>
       </c>
       <c r="B379">
         <v>78</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C379">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>8</v>
       </c>
       <c r="B380">
         <v>79</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>8</v>
       </c>
       <c r="B381">
         <v>80</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>8</v>
       </c>
       <c r="B382">
         <v>81</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C382">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>8</v>
       </c>
       <c r="B383">
         <v>82</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>8</v>
       </c>
       <c r="B384">
         <v>83</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>8</v>
       </c>
       <c r="B385">
         <v>84</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>8</v>
       </c>
       <c r="B386">
         <v>85</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C386">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>8</v>
       </c>
       <c r="B387">
         <v>86</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>8</v>
       </c>
       <c r="B388">
         <v>87</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C388">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>8</v>
       </c>
       <c r="B389">
         <v>88</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>8</v>
       </c>
       <c r="B390">
         <v>89</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C390">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>8</v>
       </c>
       <c r="B391">
         <v>90</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C391">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>8</v>
       </c>
       <c r="B392">
         <v>91</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C392">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>8</v>
       </c>
       <c r="B393">
         <v>92</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C393">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>8</v>
       </c>
       <c r="B394">
         <v>93</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>8</v>
       </c>
       <c r="B395">
         <v>94</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>8</v>
       </c>
       <c r="B396">
         <v>95</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>8</v>
       </c>
       <c r="B397">
         <v>96</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>8</v>
       </c>
       <c r="B398">
         <v>97</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>8</v>
       </c>
       <c r="B399">
         <v>98</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>8</v>
       </c>
       <c r="B400">
         <v>99</v>
       </c>
+      <c r="C400">
+        <v>3</v>
+      </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
@@ -4854,6 +5379,9 @@
       </c>
       <c r="B401">
         <v>100</v>
+      </c>
+      <c r="C401">
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -5033,6 +5561,9 @@
       <c r="B412">
         <v>11</v>
       </c>
+      <c r="C412">
+        <v>4</v>
+      </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
@@ -5041,6 +5572,9 @@
       <c r="B413">
         <v>12</v>
       </c>
+      <c r="C413">
+        <v>6</v>
+      </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
@@ -5049,6 +5583,9 @@
       <c r="B414">
         <v>13</v>
       </c>
+      <c r="C414">
+        <v>3</v>
+      </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
@@ -5057,6 +5594,9 @@
       <c r="B415">
         <v>14</v>
       </c>
+      <c r="C415">
+        <v>8</v>
+      </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
@@ -5064,6 +5604,9 @@
       </c>
       <c r="B416">
         <v>15</v>
+      </c>
+      <c r="C416">
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81992D-A1DC-493B-84C8-FEBC6939B19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04CDC2-5D4F-4CFB-8ADA-1772F9AE741B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C417" sqref="C417"/>
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B506" sqref="B506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5609,644 +5609,884 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>9</v>
       </c>
       <c r="B417">
         <v>16</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C417">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>9</v>
       </c>
       <c r="B418">
         <v>17</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C418">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>9</v>
       </c>
       <c r="B419">
         <v>18</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>9</v>
       </c>
       <c r="B420">
         <v>19</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>9</v>
       </c>
       <c r="B421">
         <v>20</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C421">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>9</v>
       </c>
       <c r="B422">
         <v>21</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C422">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>9</v>
       </c>
       <c r="B423">
         <v>22</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C423">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>9</v>
       </c>
       <c r="B424">
         <v>23</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>9</v>
       </c>
       <c r="B425">
         <v>24</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C425">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>9</v>
       </c>
       <c r="B426">
         <v>25</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C426">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>9</v>
       </c>
       <c r="B427">
         <v>26</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C427">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>9</v>
       </c>
       <c r="B428">
         <v>27</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>9</v>
       </c>
       <c r="B429">
         <v>28</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C429">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>9</v>
       </c>
       <c r="B430">
         <v>29</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>9</v>
       </c>
       <c r="B431">
         <v>30</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>9</v>
       </c>
       <c r="B432">
         <v>31</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>9</v>
       </c>
       <c r="B433">
         <v>32</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C433">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>9</v>
       </c>
       <c r="B434">
         <v>33</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>9</v>
       </c>
       <c r="B435">
         <v>34</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C435">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>9</v>
       </c>
       <c r="B436">
         <v>35</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C436">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>9</v>
       </c>
       <c r="B437">
         <v>36</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>9</v>
       </c>
       <c r="B438">
         <v>37</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C438">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>9</v>
       </c>
       <c r="B439">
         <v>38</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C439">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>9</v>
       </c>
       <c r="B440">
         <v>39</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>9</v>
       </c>
       <c r="B441">
         <v>40</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C441">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>9</v>
       </c>
       <c r="B442">
         <v>41</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C442">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>9</v>
       </c>
       <c r="B443">
         <v>42</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>9</v>
       </c>
       <c r="B444">
         <v>43</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C444">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>9</v>
       </c>
       <c r="B445">
         <v>44</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>9</v>
       </c>
       <c r="B446">
         <v>45</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C446">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>9</v>
       </c>
       <c r="B447">
         <v>46</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>9</v>
       </c>
       <c r="B448">
         <v>47</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C448">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>9</v>
       </c>
       <c r="B449">
         <v>48</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C449">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>9</v>
       </c>
       <c r="B450">
         <v>49</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C450">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>9</v>
       </c>
       <c r="B451">
         <v>50</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C451">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>9</v>
       </c>
       <c r="B452">
         <v>51</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C452">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>9</v>
       </c>
       <c r="B453">
         <v>52</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>9</v>
       </c>
       <c r="B454">
         <v>53</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C454">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>9</v>
       </c>
       <c r="B455">
         <v>54</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C455">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>9</v>
       </c>
       <c r="B456">
         <v>55</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C456">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>9</v>
       </c>
       <c r="B457">
         <v>56</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C457">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>9</v>
       </c>
       <c r="B458">
         <v>57</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C458">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>9</v>
       </c>
       <c r="B459">
         <v>58</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C459">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>9</v>
       </c>
       <c r="B460">
         <v>59</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C460">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>9</v>
       </c>
       <c r="B461">
         <v>60</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>9</v>
       </c>
       <c r="B462">
         <v>61</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C462">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>9</v>
       </c>
       <c r="B463">
         <v>62</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C463">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>9</v>
       </c>
       <c r="B464">
         <v>63</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C464">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>9</v>
       </c>
       <c r="B465">
         <v>64</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C465">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>9</v>
       </c>
       <c r="B466">
         <v>65</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C466">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>9</v>
       </c>
       <c r="B467">
         <v>66</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C467">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>9</v>
       </c>
       <c r="B468">
         <v>67</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C468">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>9</v>
       </c>
       <c r="B469">
         <v>68</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C469">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>9</v>
       </c>
       <c r="B470">
         <v>69</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C470">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>9</v>
       </c>
       <c r="B471">
         <v>70</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>9</v>
       </c>
       <c r="B472">
         <v>71</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>9</v>
       </c>
       <c r="B473">
         <v>72</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C473">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>9</v>
       </c>
       <c r="B474">
         <v>73</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C474">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>9</v>
       </c>
       <c r="B475">
         <v>74</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C475">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>9</v>
       </c>
       <c r="B476">
         <v>75</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>9</v>
       </c>
       <c r="B477">
         <v>76</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>9</v>
       </c>
       <c r="B478">
         <v>77</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>9</v>
       </c>
       <c r="B479">
         <v>78</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C479">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>9</v>
       </c>
       <c r="B480">
         <v>79</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>9</v>
       </c>
       <c r="B481">
         <v>80</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>9</v>
       </c>
       <c r="B482">
         <v>81</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C482">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>9</v>
       </c>
       <c r="B483">
         <v>82</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>9</v>
       </c>
       <c r="B484">
         <v>83</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C484">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>9</v>
       </c>
       <c r="B485">
         <v>84</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>9</v>
       </c>
       <c r="B486">
         <v>85</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C486">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>9</v>
       </c>
       <c r="B487">
         <v>86</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C487">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>9</v>
       </c>
       <c r="B488">
         <v>87</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>9</v>
       </c>
       <c r="B489">
         <v>88</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>9</v>
       </c>
       <c r="B490">
         <v>89</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>9</v>
       </c>
       <c r="B491">
         <v>90</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>9</v>
       </c>
       <c r="B492">
         <v>91</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>9</v>
       </c>
       <c r="B493">
         <v>92</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>9</v>
       </c>
       <c r="B494">
         <v>93</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C494">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>9</v>
       </c>
       <c r="B495">
         <v>94</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C495">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>9</v>
       </c>
       <c r="B496">
         <v>95</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -6256,6 +6496,9 @@
       <c r="B497">
         <v>96</v>
       </c>
+      <c r="C497">
+        <v>6</v>
+      </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
@@ -6264,6 +6507,9 @@
       <c r="B498">
         <v>97</v>
       </c>
+      <c r="C498">
+        <v>4</v>
+      </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
@@ -6272,6 +6518,9 @@
       <c r="B499">
         <v>98</v>
       </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
@@ -6280,6 +6529,9 @@
       <c r="B500">
         <v>99</v>
       </c>
+      <c r="C500">
+        <v>8</v>
+      </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
@@ -6287,6 +6539,9 @@
       </c>
       <c r="B501">
         <v>100</v>
+      </c>
+      <c r="C501">
+        <v>7</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04CDC2-5D4F-4CFB-8ADA-1772F9AE741B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9533B1-0071-4390-9D3A-E4063887A588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B506" sqref="B506"/>
+      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C916" sqref="C916"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6691,216 +6691,297 @@
       <c r="B512">
         <v>11</v>
       </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>10</v>
       </c>
       <c r="B513">
         <v>12</v>
       </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C513">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>10</v>
       </c>
       <c r="B514">
         <v>13</v>
       </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>10</v>
       </c>
       <c r="B515">
         <v>14</v>
       </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C515">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>10</v>
       </c>
       <c r="B516">
         <v>15</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C516">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>10</v>
       </c>
       <c r="B517">
         <v>16</v>
       </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C517">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>10</v>
       </c>
       <c r="B518">
         <v>17</v>
       </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C518">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>10</v>
       </c>
       <c r="B519">
         <v>18</v>
       </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>10</v>
       </c>
       <c r="B520">
         <v>19</v>
       </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>10</v>
       </c>
       <c r="B521">
         <v>20</v>
       </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>10</v>
       </c>
       <c r="B522">
         <v>21</v>
       </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C522">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>10</v>
       </c>
       <c r="B523">
         <v>22</v>
       </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>10</v>
       </c>
       <c r="B524">
         <v>23</v>
       </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>10</v>
       </c>
       <c r="B525">
         <v>24</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C525">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>10</v>
       </c>
       <c r="B526">
         <v>25</v>
       </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>10</v>
       </c>
       <c r="B527">
         <v>26</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C527">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>10</v>
       </c>
       <c r="B528">
         <v>27</v>
       </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C528">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>10</v>
       </c>
       <c r="B529">
         <v>28</v>
       </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C529">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>10</v>
       </c>
       <c r="B530">
         <v>29</v>
       </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C530">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>10</v>
       </c>
       <c r="B531">
         <v>30</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>10</v>
       </c>
       <c r="B532">
         <v>31</v>
       </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>10</v>
       </c>
       <c r="B533">
         <v>32</v>
       </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C533">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>10</v>
       </c>
       <c r="B534">
         <v>33</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>10</v>
       </c>
       <c r="B535">
         <v>34</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>10</v>
       </c>
       <c r="B536">
         <v>35</v>
       </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C536">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>10</v>
       </c>
       <c r="B537">
         <v>36</v>
       </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>10</v>
       </c>
       <c r="B538">
         <v>37</v>
       </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>10</v>
       </c>
@@ -6908,7 +6989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>10</v>
       </c>
@@ -6916,7 +6997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>10</v>
       </c>
@@ -6924,7 +7005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>10</v>
       </c>
@@ -6932,7 +7013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>10</v>
       </c>
@@ -6940,7 +7021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>10</v>
       </c>
@@ -10161,32 +10242,44 @@
       <c r="B912">
         <v>11</v>
       </c>
-    </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C912">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>14</v>
       </c>
       <c r="B913">
         <v>12</v>
       </c>
-    </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C913">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>14</v>
       </c>
       <c r="B914">
         <v>13</v>
       </c>
-    </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C914">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>14</v>
       </c>
       <c r="B915">
         <v>14</v>
       </c>
-    </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C915">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>14</v>
       </c>
@@ -10194,7 +10287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>14</v>
       </c>
@@ -10202,7 +10295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>14</v>
       </c>
@@ -10210,7 +10303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>14</v>
       </c>
@@ -10218,7 +10311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>14</v>
       </c>
@@ -10226,7 +10319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>14</v>
       </c>
@@ -10234,7 +10327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>14</v>
       </c>
@@ -10242,7 +10335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>14</v>
       </c>
@@ -10250,7 +10343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>14</v>
       </c>
@@ -10258,7 +10351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>14</v>
       </c>
@@ -10266,7 +10359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>14</v>
       </c>
@@ -10274,7 +10367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>14</v>
       </c>
@@ -10282,7 +10375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>14</v>
       </c>
@@ -11881,6 +11974,9 @@
       <c r="B1112">
         <v>11</v>
       </c>
+      <c r="C1112">
+        <v>2</v>
+      </c>
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
@@ -11889,6 +11985,9 @@
       <c r="B1113">
         <v>12</v>
       </c>
+      <c r="C1113">
+        <v>4</v>
+      </c>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
@@ -11897,6 +11996,9 @@
       <c r="B1114">
         <v>13</v>
       </c>
+      <c r="C1114">
+        <v>1</v>
+      </c>
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
@@ -11905,6 +12007,9 @@
       <c r="B1115">
         <v>14</v>
       </c>
+      <c r="C1115">
+        <v>1</v>
+      </c>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
@@ -11913,6 +12018,9 @@
       <c r="B1116">
         <v>15</v>
       </c>
+      <c r="C1116">
+        <v>7</v>
+      </c>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
@@ -11921,6 +12029,9 @@
       <c r="B1117">
         <v>16</v>
       </c>
+      <c r="C1117">
+        <v>1</v>
+      </c>
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
@@ -11929,6 +12040,9 @@
       <c r="B1118">
         <v>17</v>
       </c>
+      <c r="C1118">
+        <v>8</v>
+      </c>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
@@ -11937,6 +12051,9 @@
       <c r="B1119">
         <v>18</v>
       </c>
+      <c r="C1119">
+        <v>4</v>
+      </c>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
@@ -11945,184 +12062,253 @@
       <c r="B1120">
         <v>19</v>
       </c>
-    </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
         <v>16</v>
       </c>
       <c r="B1121">
         <v>20</v>
       </c>
-    </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
         <v>16</v>
       </c>
       <c r="B1122">
         <v>21</v>
       </c>
-    </row>
-    <row r="1123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
         <v>16</v>
       </c>
       <c r="B1123">
         <v>22</v>
       </c>
-    </row>
-    <row r="1124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
         <v>16</v>
       </c>
       <c r="B1124">
         <v>23</v>
       </c>
-    </row>
-    <row r="1125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
         <v>16</v>
       </c>
       <c r="B1125">
         <v>24</v>
       </c>
-    </row>
-    <row r="1126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
         <v>16</v>
       </c>
       <c r="B1126">
         <v>25</v>
       </c>
-    </row>
-    <row r="1127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
         <v>16</v>
       </c>
       <c r="B1127">
         <v>26</v>
       </c>
-    </row>
-    <row r="1128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
         <v>16</v>
       </c>
       <c r="B1128">
         <v>27</v>
       </c>
-    </row>
-    <row r="1129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
         <v>16</v>
       </c>
       <c r="B1129">
         <v>28</v>
       </c>
-    </row>
-    <row r="1130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
         <v>16</v>
       </c>
       <c r="B1130">
         <v>29</v>
       </c>
-    </row>
-    <row r="1131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
         <v>16</v>
       </c>
       <c r="B1131">
         <v>30</v>
       </c>
-    </row>
-    <row r="1132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
         <v>16</v>
       </c>
       <c r="B1132">
         <v>31</v>
       </c>
-    </row>
-    <row r="1133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
         <v>16</v>
       </c>
       <c r="B1133">
         <v>32</v>
       </c>
-    </row>
-    <row r="1134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
         <v>16</v>
       </c>
       <c r="B1134">
         <v>33</v>
       </c>
-    </row>
-    <row r="1135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
         <v>16</v>
       </c>
       <c r="B1135">
         <v>34</v>
       </c>
-    </row>
-    <row r="1136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
         <v>16</v>
       </c>
       <c r="B1136">
         <v>35</v>
       </c>
-    </row>
-    <row r="1137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
         <v>16</v>
       </c>
       <c r="B1137">
         <v>36</v>
       </c>
-    </row>
-    <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
         <v>16</v>
       </c>
       <c r="B1138">
         <v>37</v>
       </c>
-    </row>
-    <row r="1139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
         <v>16</v>
       </c>
       <c r="B1139">
         <v>38</v>
       </c>
-    </row>
-    <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
         <v>16</v>
       </c>
       <c r="B1140">
         <v>39</v>
       </c>
-    </row>
-    <row r="1141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
         <v>16</v>
       </c>
       <c r="B1141">
         <v>40</v>
       </c>
-    </row>
-    <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
         <v>16</v>
       </c>
       <c r="B1142">
         <v>41</v>
       </c>
-    </row>
-    <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
         <v>16</v>
       </c>
@@ -12130,7 +12316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
         <v>16</v>
       </c>
@@ -12138,7 +12324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
         <v>16</v>
       </c>
@@ -12146,7 +12332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
         <v>16</v>
       </c>
@@ -12154,7 +12340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
         <v>16</v>
       </c>
@@ -12162,7 +12348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
         <v>16</v>
       </c>
@@ -12170,7 +12356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
         <v>16</v>
       </c>
@@ -12178,7 +12364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
         <v>16</v>
       </c>
@@ -12186,7 +12372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
         <v>16</v>
       </c>
@@ -12194,7 +12380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
         <v>16</v>
       </c>

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9533B1-0071-4390-9D3A-E4063887A588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254DF72-C8EA-49A1-8903-8CA293DD0A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11508" yWindow="0" windowWidth="11532" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C916" sqref="C916"/>
+      <pane ySplit="1" topLeftCell="A1425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1437" sqref="C1437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6988,6 +6988,9 @@
       <c r="B539">
         <v>38</v>
       </c>
+      <c r="C539">
+        <v>2</v>
+      </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
@@ -6996,6 +6999,9 @@
       <c r="B540">
         <v>39</v>
       </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
@@ -7004,6 +7010,9 @@
       <c r="B541">
         <v>40</v>
       </c>
+      <c r="C541">
+        <v>10</v>
+      </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
@@ -7012,6 +7021,9 @@
       <c r="B542">
         <v>41</v>
       </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
@@ -7020,6 +7032,9 @@
       <c r="B543">
         <v>42</v>
       </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
@@ -7028,96 +7043,132 @@
       <c r="B544">
         <v>43</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C544">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>10</v>
       </c>
       <c r="B545">
         <v>44</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C545">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>10</v>
       </c>
       <c r="B546">
         <v>45</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C546">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>10</v>
       </c>
       <c r="B547">
         <v>46</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>10</v>
       </c>
       <c r="B548">
         <v>47</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>10</v>
       </c>
       <c r="B549">
         <v>48</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C549">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>10</v>
       </c>
       <c r="B550">
         <v>49</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>10</v>
       </c>
       <c r="B551">
         <v>50</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C551">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>10</v>
       </c>
       <c r="B552">
         <v>51</v>
       </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>10</v>
       </c>
       <c r="B553">
         <v>52</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C553">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>10</v>
       </c>
       <c r="B554">
         <v>53</v>
       </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C554">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>10</v>
       </c>
       <c r="B555">
         <v>54</v>
       </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C555">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>10</v>
       </c>
@@ -7125,7 +7176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>10</v>
       </c>
@@ -7133,7 +7184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>10</v>
       </c>
@@ -7141,7 +7192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>10</v>
       </c>
@@ -7149,7 +7200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>10</v>
       </c>
@@ -9382,6 +9433,9 @@
       <c r="B812">
         <v>11</v>
       </c>
+      <c r="C812">
+        <v>10</v>
+      </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
@@ -9390,6 +9444,9 @@
       <c r="B813">
         <v>12</v>
       </c>
+      <c r="C813">
+        <v>8</v>
+      </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
@@ -9398,6 +9455,9 @@
       <c r="B814">
         <v>13</v>
       </c>
+      <c r="C814">
+        <v>5</v>
+      </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
@@ -9406,6 +9466,9 @@
       <c r="B815">
         <v>14</v>
       </c>
+      <c r="C815">
+        <v>8</v>
+      </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
@@ -9414,352 +9477,484 @@
       <c r="B816">
         <v>15</v>
       </c>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C816">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>13</v>
       </c>
       <c r="B817">
         <v>16</v>
       </c>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C817">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>13</v>
       </c>
       <c r="B818">
         <v>17</v>
       </c>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C818">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>13</v>
       </c>
       <c r="B819">
         <v>18</v>
       </c>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C819">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>13</v>
       </c>
       <c r="B820">
         <v>19</v>
       </c>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C820">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>13</v>
       </c>
       <c r="B821">
         <v>20</v>
       </c>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C821">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>13</v>
       </c>
       <c r="B822">
         <v>21</v>
       </c>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C822">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>13</v>
       </c>
       <c r="B823">
         <v>22</v>
       </c>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C823">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>13</v>
       </c>
       <c r="B824">
         <v>23</v>
       </c>
-    </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C824">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>13</v>
       </c>
       <c r="B825">
         <v>24</v>
       </c>
-    </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C825">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>13</v>
       </c>
       <c r="B826">
         <v>25</v>
       </c>
-    </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C826">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>13</v>
       </c>
       <c r="B827">
         <v>26</v>
       </c>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C827">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>13</v>
       </c>
       <c r="B828">
         <v>27</v>
       </c>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C828">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>13</v>
       </c>
       <c r="B829">
         <v>28</v>
       </c>
-    </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C829">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>13</v>
       </c>
       <c r="B830">
         <v>29</v>
       </c>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C830">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>13</v>
       </c>
       <c r="B831">
         <v>30</v>
       </c>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C831">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>13</v>
       </c>
       <c r="B832">
         <v>31</v>
       </c>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C832">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>13</v>
       </c>
       <c r="B833">
         <v>32</v>
       </c>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C833">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>13</v>
       </c>
       <c r="B834">
         <v>33</v>
       </c>
-    </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C834">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>13</v>
       </c>
       <c r="B835">
         <v>34</v>
       </c>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C835">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>13</v>
       </c>
       <c r="B836">
         <v>35</v>
       </c>
-    </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C836">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>13</v>
       </c>
       <c r="B837">
         <v>36</v>
       </c>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C837">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>13</v>
       </c>
       <c r="B838">
         <v>37</v>
       </c>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C838">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>13</v>
       </c>
       <c r="B839">
         <v>38</v>
       </c>
-    </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C839">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>13</v>
       </c>
       <c r="B840">
         <v>39</v>
       </c>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>13</v>
       </c>
       <c r="B841">
         <v>40</v>
       </c>
-    </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C841">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>13</v>
       </c>
       <c r="B842">
         <v>41</v>
       </c>
-    </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C842">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>13</v>
       </c>
       <c r="B843">
         <v>42</v>
       </c>
-    </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C843">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>13</v>
       </c>
       <c r="B844">
         <v>43</v>
       </c>
-    </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C844">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>13</v>
       </c>
       <c r="B845">
         <v>44</v>
       </c>
-    </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C845">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>13</v>
       </c>
       <c r="B846">
         <v>45</v>
       </c>
-    </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C846">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>13</v>
       </c>
       <c r="B847">
         <v>46</v>
       </c>
-    </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C847">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>13</v>
       </c>
       <c r="B848">
         <v>47</v>
       </c>
-    </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C848">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>13</v>
       </c>
       <c r="B849">
         <v>48</v>
       </c>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C849">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>13</v>
       </c>
       <c r="B850">
         <v>49</v>
       </c>
-    </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C850">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>13</v>
       </c>
       <c r="B851">
         <v>50</v>
       </c>
-    </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C851">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>13</v>
       </c>
       <c r="B852">
         <v>51</v>
       </c>
-    </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C852">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>13</v>
       </c>
       <c r="B853">
         <v>52</v>
       </c>
-    </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C853">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>13</v>
       </c>
       <c r="B854">
         <v>53</v>
       </c>
-    </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C854">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>13</v>
       </c>
       <c r="B855">
         <v>54</v>
       </c>
-    </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C855">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>13</v>
       </c>
       <c r="B856">
         <v>55</v>
       </c>
-    </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C856">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>13</v>
       </c>
       <c r="B857">
         <v>56</v>
       </c>
-    </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C857">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>13</v>
       </c>
       <c r="B858">
         <v>57</v>
       </c>
-    </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C858">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>13</v>
       </c>
       <c r="B859">
         <v>58</v>
       </c>
-    </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C859">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>13</v>
       </c>
@@ -9767,7 +9962,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>13</v>
       </c>
@@ -9775,7 +9970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>13</v>
       </c>
@@ -9783,7 +9978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>13</v>
       </c>
@@ -9791,7 +9986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>13</v>
       </c>
@@ -10286,6 +10481,9 @@
       <c r="B916">
         <v>15</v>
       </c>
+      <c r="C916">
+        <v>5</v>
+      </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
@@ -10294,6 +10492,9 @@
       <c r="B917">
         <v>16</v>
       </c>
+      <c r="C917">
+        <v>3</v>
+      </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
@@ -10302,6 +10503,9 @@
       <c r="B918">
         <v>17</v>
       </c>
+      <c r="C918">
+        <v>10</v>
+      </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
@@ -10310,6 +10514,9 @@
       <c r="B919">
         <v>18</v>
       </c>
+      <c r="C919">
+        <v>1</v>
+      </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
@@ -10318,6 +10525,9 @@
       <c r="B920">
         <v>19</v>
       </c>
+      <c r="C920">
+        <v>7</v>
+      </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
@@ -10326,6 +10536,9 @@
       <c r="B921">
         <v>20</v>
       </c>
+      <c r="C921">
+        <v>8</v>
+      </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
@@ -10334,6 +10547,9 @@
       <c r="B922">
         <v>21</v>
       </c>
+      <c r="C922">
+        <v>9</v>
+      </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
@@ -10342,6 +10558,9 @@
       <c r="B923">
         <v>22</v>
       </c>
+      <c r="C923">
+        <v>10</v>
+      </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
@@ -10350,6 +10569,9 @@
       <c r="B924">
         <v>23</v>
       </c>
+      <c r="C924">
+        <v>8</v>
+      </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
@@ -10358,6 +10580,9 @@
       <c r="B925">
         <v>24</v>
       </c>
+      <c r="C925">
+        <v>5</v>
+      </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
@@ -10366,6 +10591,9 @@
       <c r="B926">
         <v>25</v>
       </c>
+      <c r="C926">
+        <v>9</v>
+      </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
@@ -10374,6 +10602,9 @@
       <c r="B927">
         <v>26</v>
       </c>
+      <c r="C927">
+        <v>9</v>
+      </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
@@ -10382,168 +10613,231 @@
       <c r="B928">
         <v>27</v>
       </c>
-    </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C928">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>14</v>
       </c>
       <c r="B929">
         <v>28</v>
       </c>
-    </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C929">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>14</v>
       </c>
       <c r="B930">
         <v>29</v>
       </c>
-    </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C930">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>14</v>
       </c>
       <c r="B931">
         <v>30</v>
       </c>
-    </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C931">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>14</v>
       </c>
       <c r="B932">
         <v>31</v>
       </c>
-    </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C932">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>14</v>
       </c>
       <c r="B933">
         <v>32</v>
       </c>
-    </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C933">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>14</v>
       </c>
       <c r="B934">
         <v>33</v>
       </c>
-    </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C934">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>14</v>
       </c>
       <c r="B935">
         <v>34</v>
       </c>
-    </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C935">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>14</v>
       </c>
       <c r="B936">
         <v>35</v>
       </c>
-    </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C936">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>14</v>
       </c>
       <c r="B937">
         <v>36</v>
       </c>
-    </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C937">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>14</v>
       </c>
       <c r="B938">
         <v>37</v>
       </c>
-    </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C938">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>14</v>
       </c>
       <c r="B939">
         <v>38</v>
       </c>
-    </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C939">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>14</v>
       </c>
       <c r="B940">
         <v>39</v>
       </c>
-    </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C940">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>14</v>
       </c>
       <c r="B941">
         <v>40</v>
       </c>
-    </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C941">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>14</v>
       </c>
       <c r="B942">
         <v>41</v>
       </c>
-    </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C942">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>14</v>
       </c>
       <c r="B943">
         <v>42</v>
       </c>
-    </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C943">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>14</v>
       </c>
       <c r="B944">
         <v>43</v>
       </c>
-    </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C944">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>14</v>
       </c>
       <c r="B945">
         <v>44</v>
       </c>
-    </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C945">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>14</v>
       </c>
       <c r="B946">
         <v>45</v>
       </c>
-    </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C946">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>14</v>
       </c>
       <c r="B947">
         <v>46</v>
       </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C947">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>14</v>
       </c>
       <c r="B948">
         <v>47</v>
       </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C948">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>14</v>
       </c>
@@ -10551,7 +10845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>14</v>
       </c>
@@ -10559,7 +10853,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>14</v>
       </c>
@@ -10567,7 +10861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>14</v>
       </c>
@@ -10575,7 +10869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>14</v>
       </c>
@@ -10583,7 +10877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>14</v>
       </c>
@@ -10591,7 +10885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>14</v>
       </c>
@@ -10599,7 +10893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>14</v>
       </c>
@@ -10607,7 +10901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>14</v>
       </c>
@@ -10615,7 +10909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>14</v>
       </c>
@@ -10623,7 +10917,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>14</v>
       </c>
@@ -10631,7 +10925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>14</v>
       </c>
@@ -12927,6 +13221,9 @@
       <c r="B1212">
         <v>11</v>
       </c>
+      <c r="C1212">
+        <v>7</v>
+      </c>
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
@@ -12935,6 +13232,9 @@
       <c r="B1213">
         <v>12</v>
       </c>
+      <c r="C1213">
+        <v>3</v>
+      </c>
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
@@ -12943,6 +13243,9 @@
       <c r="B1214">
         <v>13</v>
       </c>
+      <c r="C1214">
+        <v>1</v>
+      </c>
     </row>
     <row r="1215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
@@ -12951,6 +13254,9 @@
       <c r="B1215">
         <v>14</v>
       </c>
+      <c r="C1215">
+        <v>1</v>
+      </c>
     </row>
     <row r="1216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
@@ -12959,645 +13265,888 @@
       <c r="B1216">
         <v>15</v>
       </c>
-    </row>
-    <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
         <v>17</v>
       </c>
       <c r="B1217">
         <v>16</v>
       </c>
-    </row>
-    <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
         <v>17</v>
       </c>
       <c r="B1218">
         <v>17</v>
       </c>
-    </row>
-    <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1218">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
         <v>17</v>
       </c>
       <c r="B1219">
         <v>18</v>
       </c>
-    </row>
-    <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
         <v>17</v>
       </c>
       <c r="B1220">
         <v>19</v>
       </c>
-    </row>
-    <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
         <v>17</v>
       </c>
       <c r="B1221">
         <v>20</v>
       </c>
-    </row>
-    <row r="1222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1221">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
         <v>17</v>
       </c>
       <c r="B1222">
         <v>21</v>
       </c>
-    </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1222">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
         <v>17</v>
       </c>
       <c r="B1223">
         <v>22</v>
       </c>
-    </row>
-    <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
         <v>17</v>
       </c>
       <c r="B1224">
         <v>23</v>
       </c>
-    </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
         <v>17</v>
       </c>
       <c r="B1225">
         <v>24</v>
       </c>
-    </row>
-    <row r="1226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
         <v>17</v>
       </c>
       <c r="B1226">
         <v>25</v>
       </c>
-    </row>
-    <row r="1227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1226">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
         <v>17</v>
       </c>
       <c r="B1227">
         <v>26</v>
       </c>
-    </row>
-    <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
         <v>17</v>
       </c>
       <c r="B1228">
         <v>27</v>
       </c>
-    </row>
-    <row r="1229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
         <v>17</v>
       </c>
       <c r="B1229">
         <v>28</v>
       </c>
-    </row>
-    <row r="1230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
         <v>17</v>
       </c>
       <c r="B1230">
         <v>29</v>
       </c>
-    </row>
-    <row r="1231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1230">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
         <v>17</v>
       </c>
       <c r="B1231">
         <v>30</v>
       </c>
-    </row>
-    <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
         <v>17</v>
       </c>
       <c r="B1232">
         <v>31</v>
       </c>
-    </row>
-    <row r="1233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1232">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
         <v>17</v>
       </c>
       <c r="B1233">
         <v>32</v>
       </c>
-    </row>
-    <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1233">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
         <v>17</v>
       </c>
       <c r="B1234">
         <v>33</v>
       </c>
-    </row>
-    <row r="1235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1234">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
         <v>17</v>
       </c>
       <c r="B1235">
         <v>34</v>
       </c>
-    </row>
-    <row r="1236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
         <v>17</v>
       </c>
       <c r="B1236">
         <v>35</v>
       </c>
-    </row>
-    <row r="1237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
         <v>17</v>
       </c>
       <c r="B1237">
         <v>36</v>
       </c>
-    </row>
-    <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
         <v>17</v>
       </c>
       <c r="B1238">
         <v>37</v>
       </c>
-    </row>
-    <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
         <v>17</v>
       </c>
       <c r="B1239">
         <v>38</v>
       </c>
-    </row>
-    <row r="1240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
         <v>17</v>
       </c>
       <c r="B1240">
         <v>39</v>
       </c>
-    </row>
-    <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
         <v>17</v>
       </c>
       <c r="B1241">
         <v>40</v>
       </c>
-    </row>
-    <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
         <v>17</v>
       </c>
       <c r="B1242">
         <v>41</v>
       </c>
-    </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
         <v>17</v>
       </c>
       <c r="B1243">
         <v>42</v>
       </c>
-    </row>
-    <row r="1244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
         <v>17</v>
       </c>
       <c r="B1244">
         <v>43</v>
       </c>
-    </row>
-    <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
         <v>17</v>
       </c>
       <c r="B1245">
         <v>44</v>
       </c>
-    </row>
-    <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1245">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
         <v>17</v>
       </c>
       <c r="B1246">
         <v>45</v>
       </c>
-    </row>
-    <row r="1247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1246">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
         <v>17</v>
       </c>
       <c r="B1247">
         <v>46</v>
       </c>
-    </row>
-    <row r="1248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
         <v>17</v>
       </c>
       <c r="B1248">
         <v>47</v>
       </c>
-    </row>
-    <row r="1249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
         <v>17</v>
       </c>
       <c r="B1249">
         <v>48</v>
       </c>
-    </row>
-    <row r="1250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
         <v>17</v>
       </c>
       <c r="B1250">
         <v>49</v>
       </c>
-    </row>
-    <row r="1251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
         <v>17</v>
       </c>
       <c r="B1251">
         <v>50</v>
       </c>
-    </row>
-    <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1251">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
         <v>17</v>
       </c>
       <c r="B1252">
         <v>51</v>
       </c>
-    </row>
-    <row r="1253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
         <v>17</v>
       </c>
       <c r="B1253">
         <v>52</v>
       </c>
-    </row>
-    <row r="1254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
         <v>17</v>
       </c>
       <c r="B1254">
         <v>53</v>
       </c>
-    </row>
-    <row r="1255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1254">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
         <v>17</v>
       </c>
       <c r="B1255">
         <v>54</v>
       </c>
-    </row>
-    <row r="1256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1255">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
         <v>17</v>
       </c>
       <c r="B1256">
         <v>55</v>
       </c>
-    </row>
-    <row r="1257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1256">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
         <v>17</v>
       </c>
       <c r="B1257">
         <v>56</v>
       </c>
-    </row>
-    <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
         <v>17</v>
       </c>
       <c r="B1258">
         <v>57</v>
       </c>
-    </row>
-    <row r="1259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1258">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
         <v>17</v>
       </c>
       <c r="B1259">
         <v>58</v>
       </c>
-    </row>
-    <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
         <v>17</v>
       </c>
       <c r="B1260">
         <v>59</v>
       </c>
-    </row>
-    <row r="1261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
         <v>17</v>
       </c>
       <c r="B1261">
         <v>60</v>
       </c>
-    </row>
-    <row r="1262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
         <v>17</v>
       </c>
       <c r="B1262">
         <v>61</v>
       </c>
-    </row>
-    <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1262">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
         <v>17</v>
       </c>
       <c r="B1263">
         <v>62</v>
       </c>
-    </row>
-    <row r="1264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1263">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
         <v>17</v>
       </c>
       <c r="B1264">
         <v>63</v>
       </c>
-    </row>
-    <row r="1265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1264">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
         <v>17</v>
       </c>
       <c r="B1265">
         <v>64</v>
       </c>
-    </row>
-    <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
         <v>17</v>
       </c>
       <c r="B1266">
         <v>65</v>
       </c>
-    </row>
-    <row r="1267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1266">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
         <v>17</v>
       </c>
       <c r="B1267">
         <v>66</v>
       </c>
-    </row>
-    <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
         <v>17</v>
       </c>
       <c r="B1268">
         <v>67</v>
       </c>
-    </row>
-    <row r="1269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1268">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
         <v>17</v>
       </c>
       <c r="B1269">
         <v>68</v>
       </c>
-    </row>
-    <row r="1270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
         <v>17</v>
       </c>
       <c r="B1270">
         <v>69</v>
       </c>
-    </row>
-    <row r="1271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1270">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
         <v>17</v>
       </c>
       <c r="B1271">
         <v>70</v>
       </c>
-    </row>
-    <row r="1272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1271">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
         <v>17</v>
       </c>
       <c r="B1272">
         <v>71</v>
       </c>
-    </row>
-    <row r="1273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
         <v>17</v>
       </c>
       <c r="B1273">
         <v>72</v>
       </c>
-    </row>
-    <row r="1274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
         <v>17</v>
       </c>
       <c r="B1274">
         <v>73</v>
       </c>
-    </row>
-    <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1274">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
         <v>17</v>
       </c>
       <c r="B1275">
         <v>74</v>
       </c>
-    </row>
-    <row r="1276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1275">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
         <v>17</v>
       </c>
       <c r="B1276">
         <v>75</v>
       </c>
-    </row>
-    <row r="1277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1276">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
         <v>17</v>
       </c>
       <c r="B1277">
         <v>76</v>
       </c>
-    </row>
-    <row r="1278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1277">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
         <v>17</v>
       </c>
       <c r="B1278">
         <v>77</v>
       </c>
-    </row>
-    <row r="1279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
         <v>17</v>
       </c>
       <c r="B1279">
         <v>78</v>
       </c>
-    </row>
-    <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
         <v>17</v>
       </c>
       <c r="B1280">
         <v>79</v>
       </c>
-    </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1280">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
         <v>17</v>
       </c>
       <c r="B1281">
         <v>80</v>
       </c>
-    </row>
-    <row r="1282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
         <v>17</v>
       </c>
       <c r="B1282">
         <v>81</v>
       </c>
-    </row>
-    <row r="1283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
         <v>17</v>
       </c>
       <c r="B1283">
         <v>82</v>
       </c>
-    </row>
-    <row r="1284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
         <v>17</v>
       </c>
       <c r="B1284">
         <v>83</v>
       </c>
-    </row>
-    <row r="1285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
         <v>17</v>
       </c>
       <c r="B1285">
         <v>84</v>
       </c>
-    </row>
-    <row r="1286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
         <v>17</v>
       </c>
       <c r="B1286">
         <v>85</v>
       </c>
-    </row>
-    <row r="1287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1286">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
         <v>17</v>
       </c>
       <c r="B1287">
         <v>86</v>
       </c>
-    </row>
-    <row r="1288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
         <v>17</v>
       </c>
       <c r="B1288">
         <v>87</v>
       </c>
-    </row>
-    <row r="1289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
         <v>17</v>
       </c>
       <c r="B1289">
         <v>88</v>
       </c>
-    </row>
-    <row r="1290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1289">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
         <v>17</v>
       </c>
       <c r="B1290">
         <v>89</v>
       </c>
-    </row>
-    <row r="1291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1290">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
         <v>17</v>
       </c>
       <c r="B1291">
         <v>90</v>
       </c>
-    </row>
-    <row r="1292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
         <v>17</v>
       </c>
       <c r="B1292">
         <v>91</v>
       </c>
-    </row>
-    <row r="1293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
         <v>17</v>
       </c>
       <c r="B1293">
         <v>92</v>
       </c>
-    </row>
-    <row r="1294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1293">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
         <v>17</v>
       </c>
       <c r="B1294">
         <v>93</v>
       </c>
-    </row>
-    <row r="1295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
         <v>17</v>
       </c>
       <c r="B1295">
         <v>94</v>
       </c>
-    </row>
-    <row r="1296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1295">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
         <v>17</v>
       </c>
       <c r="B1296">
         <v>95</v>
+      </c>
+      <c r="C1296">
+        <v>8</v>
       </c>
     </row>
     <row r="1297" spans="1:5" x14ac:dyDescent="0.3">
@@ -13607,6 +14156,9 @@
       <c r="B1297">
         <v>96</v>
       </c>
+      <c r="C1297">
+        <v>7</v>
+      </c>
     </row>
     <row r="1298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
@@ -13615,6 +14167,9 @@
       <c r="B1298">
         <v>97</v>
       </c>
+      <c r="C1298">
+        <v>6</v>
+      </c>
     </row>
     <row r="1299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
@@ -13623,6 +14178,9 @@
       <c r="B1299">
         <v>98</v>
       </c>
+      <c r="C1299">
+        <v>8</v>
+      </c>
     </row>
     <row r="1300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
@@ -13631,6 +14189,9 @@
       <c r="B1300">
         <v>99</v>
       </c>
+      <c r="C1300">
+        <v>9</v>
+      </c>
     </row>
     <row r="1301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
@@ -13639,6 +14200,9 @@
       <c r="B1301">
         <v>100</v>
       </c>
+      <c r="C1301">
+        <v>8</v>
+      </c>
     </row>
     <row r="1302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
@@ -14647,6 +15211,9 @@
       <c r="B1412">
         <v>11</v>
       </c>
+      <c r="C1412">
+        <v>8</v>
+      </c>
     </row>
     <row r="1413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1413" t="s">
@@ -14655,6 +15222,9 @@
       <c r="B1413">
         <v>12</v>
       </c>
+      <c r="C1413">
+        <v>7</v>
+      </c>
     </row>
     <row r="1414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1414" t="s">
@@ -14663,6 +15233,9 @@
       <c r="B1414">
         <v>13</v>
       </c>
+      <c r="C1414">
+        <v>2</v>
+      </c>
     </row>
     <row r="1415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1415" t="s">
@@ -14671,6 +15244,9 @@
       <c r="B1415">
         <v>14</v>
       </c>
+      <c r="C1415">
+        <v>5</v>
+      </c>
     </row>
     <row r="1416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
@@ -14679,6 +15255,9 @@
       <c r="B1416">
         <v>15</v>
       </c>
+      <c r="C1416">
+        <v>1</v>
+      </c>
     </row>
     <row r="1417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1417" t="s">
@@ -14687,6 +15266,9 @@
       <c r="B1417">
         <v>16</v>
       </c>
+      <c r="C1417">
+        <v>2</v>
+      </c>
     </row>
     <row r="1418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1418" t="s">
@@ -14695,6 +15277,9 @@
       <c r="B1418">
         <v>17</v>
       </c>
+      <c r="C1418">
+        <v>8</v>
+      </c>
     </row>
     <row r="1419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1419" t="s">
@@ -14703,6 +15288,9 @@
       <c r="B1419">
         <v>18</v>
       </c>
+      <c r="C1419">
+        <v>4</v>
+      </c>
     </row>
     <row r="1420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
@@ -14711,6 +15299,9 @@
       <c r="B1420">
         <v>19</v>
       </c>
+      <c r="C1420">
+        <v>3</v>
+      </c>
     </row>
     <row r="1421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
@@ -14719,6 +15310,9 @@
       <c r="B1421">
         <v>20</v>
       </c>
+      <c r="C1421">
+        <v>8</v>
+      </c>
     </row>
     <row r="1422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
@@ -14727,6 +15321,9 @@
       <c r="B1422">
         <v>21</v>
       </c>
+      <c r="C1422">
+        <v>9</v>
+      </c>
     </row>
     <row r="1423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1423" t="s">
@@ -14735,6 +15332,9 @@
       <c r="B1423">
         <v>22</v>
       </c>
+      <c r="C1423">
+        <v>6</v>
+      </c>
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
@@ -14743,104 +15343,143 @@
       <c r="B1424">
         <v>23</v>
       </c>
-    </row>
-    <row r="1425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1424">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1425" t="s">
         <v>19</v>
       </c>
       <c r="B1425">
         <v>24</v>
       </c>
-    </row>
-    <row r="1426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1426" t="s">
         <v>19</v>
       </c>
       <c r="B1426">
         <v>25</v>
       </c>
-    </row>
-    <row r="1427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1427" t="s">
         <v>19</v>
       </c>
       <c r="B1427">
         <v>26</v>
       </c>
-    </row>
-    <row r="1428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1427">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1428" t="s">
         <v>19</v>
       </c>
       <c r="B1428">
         <v>27</v>
       </c>
-    </row>
-    <row r="1429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1428">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1429" t="s">
         <v>19</v>
       </c>
       <c r="B1429">
         <v>28</v>
       </c>
-    </row>
-    <row r="1430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1430" t="s">
         <v>19</v>
       </c>
       <c r="B1430">
         <v>29</v>
       </c>
-    </row>
-    <row r="1431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1430">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1431" t="s">
         <v>19</v>
       </c>
       <c r="B1431">
         <v>30</v>
       </c>
-    </row>
-    <row r="1432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1431">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1432" t="s">
         <v>19</v>
       </c>
       <c r="B1432">
         <v>31</v>
       </c>
-    </row>
-    <row r="1433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1432">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1433" t="s">
         <v>19</v>
       </c>
       <c r="B1433">
         <v>32</v>
       </c>
-    </row>
-    <row r="1434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1433">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1434" t="s">
         <v>19</v>
       </c>
       <c r="B1434">
         <v>33</v>
       </c>
-    </row>
-    <row r="1435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1435" t="s">
         <v>19</v>
       </c>
       <c r="B1435">
         <v>34</v>
       </c>
-    </row>
-    <row r="1436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1435">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1436" t="s">
         <v>19</v>
       </c>
       <c r="B1436">
         <v>35</v>
       </c>
-    </row>
-    <row r="1437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1436">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1437" t="s">
         <v>19</v>
       </c>
@@ -14848,7 +15487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1438" t="s">
         <v>19</v>
       </c>
@@ -14856,7 +15495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
         <v>19</v>
       </c>
@@ -14864,7 +15503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1440" t="s">
         <v>19</v>
       </c>
@@ -15507,6 +16146,9 @@
       <c r="B1512">
         <v>11</v>
       </c>
+      <c r="C1512">
+        <v>9</v>
+      </c>
     </row>
     <row r="1513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1513" t="s">
@@ -15515,6 +16157,9 @@
       <c r="B1513">
         <v>12</v>
       </c>
+      <c r="C1513">
+        <v>3</v>
+      </c>
     </row>
     <row r="1514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
@@ -15523,6 +16168,9 @@
       <c r="B1514">
         <v>13</v>
       </c>
+      <c r="C1514">
+        <v>1</v>
+      </c>
     </row>
     <row r="1515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1515" t="s">
@@ -15531,6 +16179,9 @@
       <c r="B1515">
         <v>14</v>
       </c>
+      <c r="C1515">
+        <v>4</v>
+      </c>
     </row>
     <row r="1516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
@@ -15539,6 +16190,9 @@
       <c r="B1516">
         <v>15</v>
       </c>
+      <c r="C1516">
+        <v>1</v>
+      </c>
     </row>
     <row r="1517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
@@ -15547,6 +16201,9 @@
       <c r="B1517">
         <v>16</v>
       </c>
+      <c r="C1517">
+        <v>2</v>
+      </c>
     </row>
     <row r="1518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
@@ -15555,6 +16212,9 @@
       <c r="B1518">
         <v>17</v>
       </c>
+      <c r="C1518">
+        <v>8</v>
+      </c>
     </row>
     <row r="1519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
@@ -15563,6 +16223,9 @@
       <c r="B1519">
         <v>18</v>
       </c>
+      <c r="C1519">
+        <v>1</v>
+      </c>
     </row>
     <row r="1520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
@@ -15571,653 +16234,899 @@
       <c r="B1520">
         <v>19</v>
       </c>
-    </row>
-    <row r="1521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1520">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
         <v>20</v>
       </c>
       <c r="B1521">
         <v>20</v>
       </c>
-    </row>
-    <row r="1522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1521">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1522" t="s">
         <v>20</v>
       </c>
       <c r="B1522">
         <v>21</v>
       </c>
-    </row>
-    <row r="1523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1522">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1523" t="s">
         <v>20</v>
       </c>
       <c r="B1523">
         <v>22</v>
       </c>
-    </row>
-    <row r="1524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1523">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1524" t="s">
         <v>20</v>
       </c>
       <c r="B1524">
         <v>23</v>
       </c>
-    </row>
-    <row r="1525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1524">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
         <v>20</v>
       </c>
       <c r="B1525">
         <v>24</v>
       </c>
-    </row>
-    <row r="1526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1525">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1526" t="s">
         <v>20</v>
       </c>
       <c r="B1526">
         <v>25</v>
       </c>
-    </row>
-    <row r="1527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1526">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1527" t="s">
         <v>20</v>
       </c>
       <c r="B1527">
         <v>26</v>
       </c>
-    </row>
-    <row r="1528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1527">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1528" t="s">
         <v>20</v>
       </c>
       <c r="B1528">
         <v>27</v>
       </c>
-    </row>
-    <row r="1529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1528">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1529" t="s">
         <v>20</v>
       </c>
       <c r="B1529">
         <v>28</v>
       </c>
-    </row>
-    <row r="1530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1529">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
         <v>20</v>
       </c>
       <c r="B1530">
         <v>29</v>
       </c>
-    </row>
-    <row r="1531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1530">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
         <v>20</v>
       </c>
       <c r="B1531">
         <v>30</v>
       </c>
-    </row>
-    <row r="1532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
         <v>20</v>
       </c>
       <c r="B1532">
         <v>31</v>
       </c>
-    </row>
-    <row r="1533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1532">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1533" t="s">
         <v>20</v>
       </c>
       <c r="B1533">
         <v>32</v>
       </c>
-    </row>
-    <row r="1534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1533">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1534" t="s">
         <v>20</v>
       </c>
       <c r="B1534">
         <v>33</v>
       </c>
-    </row>
-    <row r="1535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1534">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
         <v>20</v>
       </c>
       <c r="B1535">
         <v>34</v>
       </c>
-    </row>
-    <row r="1536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1535">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1536" t="s">
         <v>20</v>
       </c>
       <c r="B1536">
         <v>35</v>
       </c>
-    </row>
-    <row r="1537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1536">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1537" t="s">
         <v>20</v>
       </c>
       <c r="B1537">
         <v>36</v>
       </c>
-    </row>
-    <row r="1538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1537">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1538" t="s">
         <v>20</v>
       </c>
       <c r="B1538">
         <v>37</v>
       </c>
-    </row>
-    <row r="1539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1539" t="s">
         <v>20</v>
       </c>
       <c r="B1539">
         <v>38</v>
       </c>
-    </row>
-    <row r="1540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1540" t="s">
         <v>20</v>
       </c>
       <c r="B1540">
         <v>39</v>
       </c>
-    </row>
-    <row r="1541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1540">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1541" t="s">
         <v>20</v>
       </c>
       <c r="B1541">
         <v>40</v>
       </c>
-    </row>
-    <row r="1542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1541">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1542" t="s">
         <v>20</v>
       </c>
       <c r="B1542">
         <v>41</v>
       </c>
-    </row>
-    <row r="1543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1542">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1543" t="s">
         <v>20</v>
       </c>
       <c r="B1543">
         <v>42</v>
       </c>
-    </row>
-    <row r="1544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1543">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1544" t="s">
         <v>20</v>
       </c>
       <c r="B1544">
         <v>43</v>
       </c>
-    </row>
-    <row r="1545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1544">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1545" t="s">
         <v>20</v>
       </c>
       <c r="B1545">
         <v>44</v>
       </c>
-    </row>
-    <row r="1546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1545">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1546" t="s">
         <v>20</v>
       </c>
       <c r="B1546">
         <v>45</v>
       </c>
-    </row>
-    <row r="1547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1546">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1547" t="s">
         <v>20</v>
       </c>
       <c r="B1547">
         <v>46</v>
       </c>
-    </row>
-    <row r="1548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1547">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1548" t="s">
         <v>20</v>
       </c>
       <c r="B1548">
         <v>47</v>
       </c>
-    </row>
-    <row r="1549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
         <v>20</v>
       </c>
       <c r="B1549">
         <v>48</v>
       </c>
-    </row>
-    <row r="1550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1549">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1550" t="s">
         <v>20</v>
       </c>
       <c r="B1550">
         <v>49</v>
       </c>
-    </row>
-    <row r="1551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1550">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
         <v>20</v>
       </c>
       <c r="B1551">
         <v>50</v>
       </c>
-    </row>
-    <row r="1552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1551">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
         <v>20</v>
       </c>
       <c r="B1552">
         <v>51</v>
       </c>
-    </row>
-    <row r="1553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1552">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
         <v>20</v>
       </c>
       <c r="B1553">
         <v>52</v>
       </c>
-    </row>
-    <row r="1554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1553">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
         <v>20</v>
       </c>
       <c r="B1554">
         <v>53</v>
       </c>
-    </row>
-    <row r="1555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1554">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
         <v>20</v>
       </c>
       <c r="B1555">
         <v>54</v>
       </c>
-    </row>
-    <row r="1556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1555">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
         <v>20</v>
       </c>
       <c r="B1556">
         <v>55</v>
       </c>
-    </row>
-    <row r="1557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1556">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1557" t="s">
         <v>20</v>
       </c>
       <c r="B1557">
         <v>56</v>
       </c>
-    </row>
-    <row r="1558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1557">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
         <v>20</v>
       </c>
       <c r="B1558">
         <v>57</v>
       </c>
-    </row>
-    <row r="1559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1558">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
         <v>20</v>
       </c>
       <c r="B1559">
         <v>58</v>
       </c>
-    </row>
-    <row r="1560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1559">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
         <v>20</v>
       </c>
       <c r="B1560">
         <v>59</v>
       </c>
-    </row>
-    <row r="1561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1560">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1561" t="s">
         <v>20</v>
       </c>
       <c r="B1561">
         <v>60</v>
       </c>
-    </row>
-    <row r="1562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1561">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1562" t="s">
         <v>20</v>
       </c>
       <c r="B1562">
         <v>61</v>
       </c>
-    </row>
-    <row r="1563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1562">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1563" t="s">
         <v>20</v>
       </c>
       <c r="B1563">
         <v>62</v>
       </c>
-    </row>
-    <row r="1564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1563">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1564" t="s">
         <v>20</v>
       </c>
       <c r="B1564">
         <v>63</v>
       </c>
-    </row>
-    <row r="1565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1564">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1565" t="s">
         <v>20</v>
       </c>
       <c r="B1565">
         <v>64</v>
       </c>
-    </row>
-    <row r="1566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1565">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1566" t="s">
         <v>20</v>
       </c>
       <c r="B1566">
         <v>65</v>
       </c>
-    </row>
-    <row r="1567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1566">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
         <v>20</v>
       </c>
       <c r="B1567">
         <v>66</v>
       </c>
-    </row>
-    <row r="1568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1567">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1568" t="s">
         <v>20</v>
       </c>
       <c r="B1568">
         <v>67</v>
       </c>
-    </row>
-    <row r="1569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1568">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1569" t="s">
         <v>20</v>
       </c>
       <c r="B1569">
         <v>68</v>
       </c>
-    </row>
-    <row r="1570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1570" t="s">
         <v>20</v>
       </c>
       <c r="B1570">
         <v>69</v>
       </c>
-    </row>
-    <row r="1571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1570">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1571" t="s">
         <v>20</v>
       </c>
       <c r="B1571">
         <v>70</v>
       </c>
-    </row>
-    <row r="1572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1571">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1572" t="s">
         <v>20</v>
       </c>
       <c r="B1572">
         <v>71</v>
       </c>
-    </row>
-    <row r="1573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1572">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1573" t="s">
         <v>20</v>
       </c>
       <c r="B1573">
         <v>72</v>
       </c>
-    </row>
-    <row r="1574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1573">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1574" t="s">
         <v>20</v>
       </c>
       <c r="B1574">
         <v>73</v>
       </c>
-    </row>
-    <row r="1575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1574">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1575" t="s">
         <v>20</v>
       </c>
       <c r="B1575">
         <v>74</v>
       </c>
-    </row>
-    <row r="1576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1575">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1576" t="s">
         <v>20</v>
       </c>
       <c r="B1576">
         <v>75</v>
       </c>
-    </row>
-    <row r="1577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1576">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1577" t="s">
         <v>20</v>
       </c>
       <c r="B1577">
         <v>76</v>
       </c>
-    </row>
-    <row r="1578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1577">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1578" t="s">
         <v>20</v>
       </c>
       <c r="B1578">
         <v>77</v>
       </c>
-    </row>
-    <row r="1579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1578">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1579" t="s">
         <v>20</v>
       </c>
       <c r="B1579">
         <v>78</v>
       </c>
-    </row>
-    <row r="1580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1579">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1580" t="s">
         <v>20</v>
       </c>
       <c r="B1580">
         <v>79</v>
       </c>
-    </row>
-    <row r="1581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1580">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1581" t="s">
         <v>20</v>
       </c>
       <c r="B1581">
         <v>80</v>
       </c>
-    </row>
-    <row r="1582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1581">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1582" t="s">
         <v>20</v>
       </c>
       <c r="B1582">
         <v>81</v>
       </c>
-    </row>
-    <row r="1583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1582">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1583" t="s">
         <v>20</v>
       </c>
       <c r="B1583">
         <v>82</v>
       </c>
-    </row>
-    <row r="1584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1583">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1584" t="s">
         <v>20</v>
       </c>
       <c r="B1584">
         <v>83</v>
       </c>
-    </row>
-    <row r="1585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1585" t="s">
         <v>20</v>
       </c>
       <c r="B1585">
         <v>84</v>
       </c>
-    </row>
-    <row r="1586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1585">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1586" t="s">
         <v>20</v>
       </c>
       <c r="B1586">
         <v>85</v>
       </c>
-    </row>
-    <row r="1587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1586">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1587" t="s">
         <v>20</v>
       </c>
       <c r="B1587">
         <v>86</v>
       </c>
-    </row>
-    <row r="1588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1587">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1588" t="s">
         <v>20</v>
       </c>
       <c r="B1588">
         <v>87</v>
       </c>
-    </row>
-    <row r="1589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1588">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1589" t="s">
         <v>20</v>
       </c>
       <c r="B1589">
         <v>88</v>
       </c>
-    </row>
-    <row r="1590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1589">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1590" t="s">
         <v>20</v>
       </c>
       <c r="B1590">
         <v>89</v>
       </c>
-    </row>
-    <row r="1591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1591" t="s">
         <v>20</v>
       </c>
       <c r="B1591">
         <v>90</v>
       </c>
-    </row>
-    <row r="1592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1591">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1592" t="s">
         <v>20</v>
       </c>
       <c r="B1592">
         <v>91</v>
       </c>
-    </row>
-    <row r="1593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1592">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1593" t="s">
         <v>20</v>
       </c>
       <c r="B1593">
         <v>92</v>
       </c>
-    </row>
-    <row r="1594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1593">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1594" t="s">
         <v>20</v>
       </c>
       <c r="B1594">
         <v>93</v>
       </c>
-    </row>
-    <row r="1595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1594">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1595" t="s">
         <v>20</v>
       </c>
       <c r="B1595">
         <v>94</v>
       </c>
-    </row>
-    <row r="1596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1595">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1596" t="s">
         <v>20</v>
       </c>
       <c r="B1596">
         <v>95</v>
       </c>
-    </row>
-    <row r="1597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1596">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1597" t="s">
         <v>20</v>
       </c>
       <c r="B1597">
         <v>96</v>
       </c>
-    </row>
-    <row r="1598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1597">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1598" t="s">
         <v>20</v>
       </c>
       <c r="B1598">
         <v>97</v>
       </c>
-    </row>
-    <row r="1599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1598">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1599" t="s">
         <v>20</v>
       </c>
       <c r="B1599">
         <v>98</v>
       </c>
-    </row>
-    <row r="1600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1599">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1600" t="s">
         <v>20</v>
       </c>
       <c r="B1600">
         <v>99</v>
       </c>
-    </row>
-    <row r="1601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1600">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1601" t="s">
         <v>20</v>
       </c>
       <c r="B1601">
         <v>100</v>
+      </c>
+      <c r="C1601">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254DF72-C8EA-49A1-8903-8CA293DD0A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE33BD-CF54-4AD8-B632-03E533F6455F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11508" yWindow="0" windowWidth="11532" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1437" sqref="C1437"/>
+      <pane ySplit="1" topLeftCell="A1026" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1030" sqref="C1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11408,6 +11408,9 @@
       <c r="B1012">
         <v>11</v>
       </c>
+      <c r="C1012">
+        <v>8</v>
+      </c>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
@@ -11416,6 +11419,9 @@
       <c r="B1013">
         <v>12</v>
       </c>
+      <c r="C1013">
+        <v>3</v>
+      </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
@@ -11424,6 +11430,9 @@
       <c r="B1014">
         <v>13</v>
       </c>
+      <c r="C1014">
+        <v>7</v>
+      </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
@@ -11432,6 +11441,9 @@
       <c r="B1015">
         <v>14</v>
       </c>
+      <c r="C1015">
+        <v>5</v>
+      </c>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
@@ -11440,6 +11452,9 @@
       <c r="B1016">
         <v>15</v>
       </c>
+      <c r="C1016">
+        <v>7</v>
+      </c>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
@@ -11448,6 +11463,9 @@
       <c r="B1017">
         <v>16</v>
       </c>
+      <c r="C1017">
+        <v>3</v>
+      </c>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
@@ -11456,6 +11474,9 @@
       <c r="B1018">
         <v>17</v>
       </c>
+      <c r="C1018">
+        <v>9</v>
+      </c>
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
@@ -11464,6 +11485,9 @@
       <c r="B1019">
         <v>18</v>
       </c>
+      <c r="C1019">
+        <v>1</v>
+      </c>
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
@@ -11472,6 +11496,9 @@
       <c r="B1020">
         <v>19</v>
       </c>
+      <c r="C1020">
+        <v>6</v>
+      </c>
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
@@ -11480,6 +11507,9 @@
       <c r="B1021">
         <v>20</v>
       </c>
+      <c r="C1021">
+        <v>4</v>
+      </c>
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
@@ -11488,6 +11518,9 @@
       <c r="B1022">
         <v>21</v>
       </c>
+      <c r="C1022">
+        <v>8</v>
+      </c>
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
@@ -11496,6 +11529,9 @@
       <c r="B1023">
         <v>22</v>
       </c>
+      <c r="C1023">
+        <v>8</v>
+      </c>
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
@@ -11504,48 +11540,66 @@
       <c r="B1024">
         <v>23</v>
       </c>
-    </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1024">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
         <v>15</v>
       </c>
       <c r="B1025">
         <v>24</v>
       </c>
-    </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1025">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
         <v>15</v>
       </c>
       <c r="B1026">
         <v>25</v>
       </c>
-    </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1026">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
         <v>15</v>
       </c>
       <c r="B1027">
         <v>26</v>
       </c>
-    </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1027">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
         <v>15</v>
       </c>
       <c r="B1028">
         <v>27</v>
       </c>
-    </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1028">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
         <v>15</v>
       </c>
       <c r="B1029">
         <v>28</v>
       </c>
-    </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1029">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
         <v>15</v>
       </c>
@@ -11553,7 +11607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
         <v>15</v>
       </c>
@@ -11561,7 +11615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
         <v>15</v>
       </c>
@@ -11569,7 +11623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
         <v>15</v>
       </c>
@@ -11577,7 +11631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
         <v>15</v>
       </c>
@@ -11585,7 +11639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
         <v>15</v>
       </c>
@@ -11593,7 +11647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
         <v>15</v>
       </c>
@@ -11601,7 +11655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
         <v>15</v>
       </c>
@@ -11609,7 +11663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
         <v>15</v>
       </c>
@@ -11617,7 +11671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
         <v>15</v>
       </c>
@@ -11625,7 +11679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
         <v>15</v>
       </c>
@@ -12609,6 +12663,9 @@
       <c r="B1143">
         <v>42</v>
       </c>
+      <c r="C1143">
+        <v>3</v>
+      </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
@@ -12617,6 +12674,9 @@
       <c r="B1144">
         <v>43</v>
       </c>
+      <c r="C1144">
+        <v>5</v>
+      </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
@@ -12625,6 +12685,9 @@
       <c r="B1145">
         <v>44</v>
       </c>
+      <c r="C1145">
+        <v>3</v>
+      </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
@@ -12633,6 +12696,9 @@
       <c r="B1146">
         <v>45</v>
       </c>
+      <c r="C1146">
+        <v>4</v>
+      </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
@@ -12641,6 +12707,9 @@
       <c r="B1147">
         <v>46</v>
       </c>
+      <c r="C1147">
+        <v>2</v>
+      </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
@@ -12649,6 +12718,9 @@
       <c r="B1148">
         <v>47</v>
       </c>
+      <c r="C1148">
+        <v>6</v>
+      </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
@@ -12657,6 +12729,9 @@
       <c r="B1149">
         <v>48</v>
       </c>
+      <c r="C1149">
+        <v>4</v>
+      </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
@@ -12665,6 +12740,9 @@
       <c r="B1150">
         <v>49</v>
       </c>
+      <c r="C1150">
+        <v>2</v>
+      </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
@@ -12673,6 +12751,9 @@
       <c r="B1151">
         <v>50</v>
       </c>
+      <c r="C1151">
+        <v>6</v>
+      </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
@@ -12681,389 +12762,536 @@
       <c r="B1152">
         <v>51</v>
       </c>
-    </row>
-    <row r="1153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
         <v>16</v>
       </c>
       <c r="B1153">
         <v>52</v>
       </c>
-    </row>
-    <row r="1154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
         <v>16</v>
       </c>
       <c r="B1154">
         <v>53</v>
       </c>
-    </row>
-    <row r="1155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
         <v>16</v>
       </c>
       <c r="B1155">
         <v>54</v>
       </c>
-    </row>
-    <row r="1156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
         <v>16</v>
       </c>
       <c r="B1156">
         <v>55</v>
       </c>
-    </row>
-    <row r="1157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
         <v>16</v>
       </c>
       <c r="B1157">
         <v>56</v>
       </c>
-    </row>
-    <row r="1158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
         <v>16</v>
       </c>
       <c r="B1158">
         <v>57</v>
       </c>
-    </row>
-    <row r="1159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
         <v>16</v>
       </c>
       <c r="B1159">
         <v>58</v>
       </c>
-    </row>
-    <row r="1160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
         <v>16</v>
       </c>
       <c r="B1160">
         <v>59</v>
       </c>
-    </row>
-    <row r="1161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
         <v>16</v>
       </c>
       <c r="B1161">
         <v>60</v>
       </c>
-    </row>
-    <row r="1162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
         <v>16</v>
       </c>
       <c r="B1162">
         <v>61</v>
       </c>
-    </row>
-    <row r="1163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
         <v>16</v>
       </c>
       <c r="B1163">
         <v>62</v>
       </c>
-    </row>
-    <row r="1164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
         <v>16</v>
       </c>
       <c r="B1164">
         <v>63</v>
       </c>
-    </row>
-    <row r="1165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
         <v>16</v>
       </c>
       <c r="B1165">
         <v>64</v>
       </c>
-    </row>
-    <row r="1166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
         <v>16</v>
       </c>
       <c r="B1166">
         <v>65</v>
       </c>
-    </row>
-    <row r="1167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1166">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
         <v>16</v>
       </c>
       <c r="B1167">
         <v>66</v>
       </c>
-    </row>
-    <row r="1168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
         <v>16</v>
       </c>
       <c r="B1168">
         <v>67</v>
       </c>
-    </row>
-    <row r="1169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
         <v>16</v>
       </c>
       <c r="B1169">
         <v>68</v>
       </c>
-    </row>
-    <row r="1170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
         <v>16</v>
       </c>
       <c r="B1170">
         <v>69</v>
       </c>
-    </row>
-    <row r="1171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
         <v>16</v>
       </c>
       <c r="B1171">
         <v>70</v>
       </c>
-    </row>
-    <row r="1172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
         <v>16</v>
       </c>
       <c r="B1172">
         <v>71</v>
       </c>
-    </row>
-    <row r="1173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
         <v>16</v>
       </c>
       <c r="B1173">
         <v>72</v>
       </c>
-    </row>
-    <row r="1174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
         <v>16</v>
       </c>
       <c r="B1174">
         <v>73</v>
       </c>
-    </row>
-    <row r="1175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
         <v>16</v>
       </c>
       <c r="B1175">
         <v>74</v>
       </c>
-    </row>
-    <row r="1176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
         <v>16</v>
       </c>
       <c r="B1176">
         <v>75</v>
       </c>
-    </row>
-    <row r="1177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
         <v>16</v>
       </c>
       <c r="B1177">
         <v>76</v>
       </c>
-    </row>
-    <row r="1178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
         <v>16</v>
       </c>
       <c r="B1178">
         <v>77</v>
       </c>
-    </row>
-    <row r="1179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
         <v>16</v>
       </c>
       <c r="B1179">
         <v>78</v>
       </c>
-    </row>
-    <row r="1180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
         <v>16</v>
       </c>
       <c r="B1180">
         <v>79</v>
       </c>
-    </row>
-    <row r="1181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
         <v>16</v>
       </c>
       <c r="B1181">
         <v>80</v>
       </c>
-    </row>
-    <row r="1182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
         <v>16</v>
       </c>
       <c r="B1182">
         <v>81</v>
       </c>
-    </row>
-    <row r="1183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
         <v>16</v>
       </c>
       <c r="B1183">
         <v>82</v>
       </c>
-    </row>
-    <row r="1184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
         <v>16</v>
       </c>
       <c r="B1184">
         <v>83</v>
       </c>
-    </row>
-    <row r="1185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
         <v>16</v>
       </c>
       <c r="B1185">
         <v>84</v>
       </c>
-    </row>
-    <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
         <v>16</v>
       </c>
       <c r="B1186">
         <v>85</v>
       </c>
-    </row>
-    <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
         <v>16</v>
       </c>
       <c r="B1187">
         <v>86</v>
       </c>
-    </row>
-    <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
         <v>16</v>
       </c>
       <c r="B1188">
         <v>87</v>
       </c>
-    </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
         <v>16</v>
       </c>
       <c r="B1189">
         <v>88</v>
       </c>
-    </row>
-    <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
         <v>16</v>
       </c>
       <c r="B1190">
         <v>89</v>
       </c>
-    </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
         <v>16</v>
       </c>
       <c r="B1191">
         <v>90</v>
       </c>
-    </row>
-    <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
         <v>16</v>
       </c>
       <c r="B1192">
         <v>91</v>
       </c>
-    </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
         <v>16</v>
       </c>
       <c r="B1193">
         <v>92</v>
       </c>
-    </row>
-    <row r="1194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
         <v>16</v>
       </c>
       <c r="B1194">
         <v>93</v>
       </c>
-    </row>
-    <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
         <v>16</v>
       </c>
       <c r="B1195">
         <v>94</v>
       </c>
-    </row>
-    <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
         <v>16</v>
       </c>
       <c r="B1196">
         <v>95</v>
       </c>
-    </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
         <v>16</v>
       </c>
       <c r="B1197">
         <v>96</v>
       </c>
-    </row>
-    <row r="1198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
         <v>16</v>
       </c>
       <c r="B1198">
         <v>97</v>
       </c>
-    </row>
-    <row r="1199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
         <v>16</v>
       </c>
       <c r="B1199">
         <v>98</v>
       </c>
-    </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
         <v>16</v>
       </c>
       <c r="B1200">
         <v>99</v>
+      </c>
+      <c r="C1200">
+        <v>7</v>
       </c>
     </row>
     <row r="1201" spans="1:5" x14ac:dyDescent="0.3">
@@ -13073,6 +13301,9 @@
       <c r="B1201">
         <v>100</v>
       </c>
+      <c r="C1201">
+        <v>4</v>
+      </c>
     </row>
     <row r="1202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
@@ -14351,645 +14582,888 @@
       <c r="B1312">
         <v>11</v>
       </c>
-    </row>
-    <row r="1313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1312">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
         <v>18</v>
       </c>
       <c r="B1313">
         <v>12</v>
       </c>
-    </row>
-    <row r="1314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1313">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
         <v>18</v>
       </c>
       <c r="B1314">
         <v>13</v>
       </c>
-    </row>
-    <row r="1315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
         <v>18</v>
       </c>
       <c r="B1315">
         <v>14</v>
       </c>
-    </row>
-    <row r="1316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1315">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
         <v>18</v>
       </c>
       <c r="B1316">
         <v>15</v>
       </c>
-    </row>
-    <row r="1317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1316">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
         <v>18</v>
       </c>
       <c r="B1317">
         <v>16</v>
       </c>
-    </row>
-    <row r="1318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
         <v>18</v>
       </c>
       <c r="B1318">
         <v>17</v>
       </c>
-    </row>
-    <row r="1319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1318">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
         <v>18</v>
       </c>
       <c r="B1319">
         <v>18</v>
       </c>
-    </row>
-    <row r="1320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1319">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
         <v>18</v>
       </c>
       <c r="B1320">
         <v>19</v>
       </c>
-    </row>
-    <row r="1321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
         <v>18</v>
       </c>
       <c r="B1321">
         <v>20</v>
       </c>
-    </row>
-    <row r="1322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
         <v>18</v>
       </c>
       <c r="B1322">
         <v>21</v>
       </c>
-    </row>
-    <row r="1323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
         <v>18</v>
       </c>
       <c r="B1323">
         <v>22</v>
       </c>
-    </row>
-    <row r="1324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
         <v>18</v>
       </c>
       <c r="B1324">
         <v>23</v>
       </c>
-    </row>
-    <row r="1325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
         <v>18</v>
       </c>
       <c r="B1325">
         <v>24</v>
       </c>
-    </row>
-    <row r="1326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
         <v>18</v>
       </c>
       <c r="B1326">
         <v>25</v>
       </c>
-    </row>
-    <row r="1327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1326">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
         <v>18</v>
       </c>
       <c r="B1327">
         <v>26</v>
       </c>
-    </row>
-    <row r="1328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
         <v>18</v>
       </c>
       <c r="B1328">
         <v>27</v>
       </c>
-    </row>
-    <row r="1329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
         <v>18</v>
       </c>
       <c r="B1329">
         <v>28</v>
       </c>
-    </row>
-    <row r="1330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1329">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
         <v>18</v>
       </c>
       <c r="B1330">
         <v>29</v>
       </c>
-    </row>
-    <row r="1331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1330">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
         <v>18</v>
       </c>
       <c r="B1331">
         <v>30</v>
       </c>
-    </row>
-    <row r="1332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
         <v>18</v>
       </c>
       <c r="B1332">
         <v>31</v>
       </c>
-    </row>
-    <row r="1333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
         <v>18</v>
       </c>
       <c r="B1333">
         <v>32</v>
       </c>
-    </row>
-    <row r="1334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1333">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
         <v>18</v>
       </c>
       <c r="B1334">
         <v>33</v>
       </c>
-    </row>
-    <row r="1335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1334">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
         <v>18</v>
       </c>
       <c r="B1335">
         <v>34</v>
       </c>
-    </row>
-    <row r="1336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1335">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
         <v>18</v>
       </c>
       <c r="B1336">
         <v>35</v>
       </c>
-    </row>
-    <row r="1337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
         <v>18</v>
       </c>
       <c r="B1337">
         <v>36</v>
       </c>
-    </row>
-    <row r="1338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1337">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
         <v>18</v>
       </c>
       <c r="B1338">
         <v>37</v>
       </c>
-    </row>
-    <row r="1339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1338">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
         <v>18</v>
       </c>
       <c r="B1339">
         <v>38</v>
       </c>
-    </row>
-    <row r="1340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1339">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
         <v>18</v>
       </c>
       <c r="B1340">
         <v>39</v>
       </c>
-    </row>
-    <row r="1341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1340">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
         <v>18</v>
       </c>
       <c r="B1341">
         <v>40</v>
       </c>
-    </row>
-    <row r="1342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
         <v>18</v>
       </c>
       <c r="B1342">
         <v>41</v>
       </c>
-    </row>
-    <row r="1343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
         <v>18</v>
       </c>
       <c r="B1343">
         <v>42</v>
       </c>
-    </row>
-    <row r="1344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
         <v>18</v>
       </c>
       <c r="B1344">
         <v>43</v>
       </c>
-    </row>
-    <row r="1345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
         <v>18</v>
       </c>
       <c r="B1345">
         <v>44</v>
       </c>
-    </row>
-    <row r="1346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
         <v>18</v>
       </c>
       <c r="B1346">
         <v>45</v>
       </c>
-    </row>
-    <row r="1347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
         <v>18</v>
       </c>
       <c r="B1347">
         <v>46</v>
       </c>
-    </row>
-    <row r="1348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
         <v>18</v>
       </c>
       <c r="B1348">
         <v>47</v>
       </c>
-    </row>
-    <row r="1349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1348">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
         <v>18</v>
       </c>
       <c r="B1349">
         <v>48</v>
       </c>
-    </row>
-    <row r="1350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1349">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
         <v>18</v>
       </c>
       <c r="B1350">
         <v>49</v>
       </c>
-    </row>
-    <row r="1351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1350">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
         <v>18</v>
       </c>
       <c r="B1351">
         <v>50</v>
       </c>
-    </row>
-    <row r="1352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1351">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
         <v>18</v>
       </c>
       <c r="B1352">
         <v>51</v>
       </c>
-    </row>
-    <row r="1353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
         <v>18</v>
       </c>
       <c r="B1353">
         <v>52</v>
       </c>
-    </row>
-    <row r="1354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1353">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
         <v>18</v>
       </c>
       <c r="B1354">
         <v>53</v>
       </c>
-    </row>
-    <row r="1355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1354">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
         <v>18</v>
       </c>
       <c r="B1355">
         <v>54</v>
       </c>
-    </row>
-    <row r="1356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1355">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
         <v>18</v>
       </c>
       <c r="B1356">
         <v>55</v>
       </c>
-    </row>
-    <row r="1357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1356">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
         <v>18</v>
       </c>
       <c r="B1357">
         <v>56</v>
       </c>
-    </row>
-    <row r="1358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
         <v>18</v>
       </c>
       <c r="B1358">
         <v>57</v>
       </c>
-    </row>
-    <row r="1359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1358">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
         <v>18</v>
       </c>
       <c r="B1359">
         <v>58</v>
       </c>
-    </row>
-    <row r="1360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1359">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
         <v>18</v>
       </c>
       <c r="B1360">
         <v>59</v>
       </c>
-    </row>
-    <row r="1361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
         <v>18</v>
       </c>
       <c r="B1361">
         <v>60</v>
       </c>
-    </row>
-    <row r="1362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
         <v>18</v>
       </c>
       <c r="B1362">
         <v>61</v>
       </c>
-    </row>
-    <row r="1363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
         <v>18</v>
       </c>
       <c r="B1363">
         <v>62</v>
       </c>
-    </row>
-    <row r="1364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1363">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
         <v>18</v>
       </c>
       <c r="B1364">
         <v>63</v>
       </c>
-    </row>
-    <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1364">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
         <v>18</v>
       </c>
       <c r="B1365">
         <v>64</v>
       </c>
-    </row>
-    <row r="1366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1365">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
         <v>18</v>
       </c>
       <c r="B1366">
         <v>65</v>
       </c>
-    </row>
-    <row r="1367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
         <v>18</v>
       </c>
       <c r="B1367">
         <v>66</v>
       </c>
-    </row>
-    <row r="1368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
         <v>18</v>
       </c>
       <c r="B1368">
         <v>67</v>
       </c>
-    </row>
-    <row r="1369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1368">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
         <v>18</v>
       </c>
       <c r="B1369">
         <v>68</v>
       </c>
-    </row>
-    <row r="1370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
         <v>18</v>
       </c>
       <c r="B1370">
         <v>69</v>
       </c>
-    </row>
-    <row r="1371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
         <v>18</v>
       </c>
       <c r="B1371">
         <v>70</v>
       </c>
-    </row>
-    <row r="1372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1371">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
         <v>18</v>
       </c>
       <c r="B1372">
         <v>71</v>
       </c>
-    </row>
-    <row r="1373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1372">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
         <v>18</v>
       </c>
       <c r="B1373">
         <v>72</v>
       </c>
-    </row>
-    <row r="1374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
         <v>18</v>
       </c>
       <c r="B1374">
         <v>73</v>
       </c>
-    </row>
-    <row r="1375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1374">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
         <v>18</v>
       </c>
       <c r="B1375">
         <v>74</v>
       </c>
-    </row>
-    <row r="1376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
         <v>18</v>
       </c>
       <c r="B1376">
         <v>75</v>
       </c>
-    </row>
-    <row r="1377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1376">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1377" t="s">
         <v>18</v>
       </c>
       <c r="B1377">
         <v>76</v>
       </c>
-    </row>
-    <row r="1378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1377">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1378" t="s">
         <v>18</v>
       </c>
       <c r="B1378">
         <v>77</v>
       </c>
-    </row>
-    <row r="1379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1379" t="s">
         <v>18</v>
       </c>
       <c r="B1379">
         <v>78</v>
       </c>
-    </row>
-    <row r="1380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
         <v>18</v>
       </c>
       <c r="B1380">
         <v>79</v>
       </c>
-    </row>
-    <row r="1381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1381" t="s">
         <v>18</v>
       </c>
       <c r="B1381">
         <v>80</v>
       </c>
-    </row>
-    <row r="1382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1382" t="s">
         <v>18</v>
       </c>
       <c r="B1382">
         <v>81</v>
       </c>
-    </row>
-    <row r="1383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1382">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1383" t="s">
         <v>18</v>
       </c>
       <c r="B1383">
         <v>82</v>
       </c>
-    </row>
-    <row r="1384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1384" t="s">
         <v>18</v>
       </c>
       <c r="B1384">
         <v>83</v>
       </c>
-    </row>
-    <row r="1385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1385" t="s">
         <v>18</v>
       </c>
       <c r="B1385">
         <v>84</v>
       </c>
-    </row>
-    <row r="1386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1386" t="s">
         <v>18</v>
       </c>
       <c r="B1386">
         <v>85</v>
       </c>
-    </row>
-    <row r="1387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1387" t="s">
         <v>18</v>
       </c>
       <c r="B1387">
         <v>86</v>
       </c>
-    </row>
-    <row r="1388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1388" t="s">
         <v>18</v>
       </c>
       <c r="B1388">
         <v>87</v>
       </c>
-    </row>
-    <row r="1389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1389" t="s">
         <v>18</v>
       </c>
       <c r="B1389">
         <v>88</v>
       </c>
-    </row>
-    <row r="1390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1390" t="s">
         <v>18</v>
       </c>
       <c r="B1390">
         <v>89</v>
       </c>
-    </row>
-    <row r="1391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1390">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1391" t="s">
         <v>18</v>
       </c>
       <c r="B1391">
         <v>90</v>
       </c>
-    </row>
-    <row r="1392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1392" t="s">
         <v>18</v>
       </c>
       <c r="B1392">
         <v>91</v>
+      </c>
+      <c r="C1392">
+        <v>4</v>
       </c>
     </row>
     <row r="1393" spans="1:5" x14ac:dyDescent="0.3">
@@ -14999,6 +15473,9 @@
       <c r="B1393">
         <v>92</v>
       </c>
+      <c r="C1393">
+        <v>3</v>
+      </c>
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
@@ -15007,6 +15484,9 @@
       <c r="B1394">
         <v>93</v>
       </c>
+      <c r="C1394">
+        <v>5</v>
+      </c>
     </row>
     <row r="1395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1395" t="s">
@@ -15015,6 +15495,9 @@
       <c r="B1395">
         <v>94</v>
       </c>
+      <c r="C1395">
+        <v>3</v>
+      </c>
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1396" t="s">
@@ -15023,6 +15506,9 @@
       <c r="B1396">
         <v>95</v>
       </c>
+      <c r="C1396">
+        <v>5</v>
+      </c>
     </row>
     <row r="1397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
@@ -15031,6 +15517,9 @@
       <c r="B1397">
         <v>96</v>
       </c>
+      <c r="C1397">
+        <v>8</v>
+      </c>
     </row>
     <row r="1398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1398" t="s">
@@ -15039,6 +15528,9 @@
       <c r="B1398">
         <v>97</v>
       </c>
+      <c r="C1398">
+        <v>3</v>
+      </c>
     </row>
     <row r="1399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1399" t="s">
@@ -15047,6 +15539,9 @@
       <c r="B1399">
         <v>98</v>
       </c>
+      <c r="C1399">
+        <v>4</v>
+      </c>
     </row>
     <row r="1400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1400" t="s">
@@ -15055,6 +15550,9 @@
       <c r="B1400">
         <v>99</v>
       </c>
+      <c r="C1400">
+        <v>3</v>
+      </c>
     </row>
     <row r="1401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1401" t="s">
@@ -15063,6 +15561,9 @@
       <c r="B1401">
         <v>100</v>
       </c>
+      <c r="C1401">
+        <v>5</v>
+      </c>
     </row>
     <row r="1402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1402" t="s">
@@ -15486,6 +15987,9 @@
       <c r="B1437">
         <v>36</v>
       </c>
+      <c r="C1437">
+        <v>3</v>
+      </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1438" t="s">
@@ -15494,6 +15998,9 @@
       <c r="B1438">
         <v>37</v>
       </c>
+      <c r="C1438">
+        <v>1</v>
+      </c>
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
@@ -15502,6 +16009,9 @@
       <c r="B1439">
         <v>38</v>
       </c>
+      <c r="C1439">
+        <v>4</v>
+      </c>
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1440" t="s">
@@ -15510,389 +16020,536 @@
       <c r="B1440">
         <v>39</v>
       </c>
-    </row>
-    <row r="1441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1441" t="s">
         <v>19</v>
       </c>
       <c r="B1441">
         <v>40</v>
       </c>
-    </row>
-    <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1441">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1442" t="s">
         <v>19</v>
       </c>
       <c r="B1442">
         <v>41</v>
       </c>
-    </row>
-    <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1442">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1443" t="s">
         <v>19</v>
       </c>
       <c r="B1443">
         <v>42</v>
       </c>
-    </row>
-    <row r="1444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1444" t="s">
         <v>19</v>
       </c>
       <c r="B1444">
         <v>43</v>
       </c>
-    </row>
-    <row r="1445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1444">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
         <v>19</v>
       </c>
       <c r="B1445">
         <v>44</v>
       </c>
-    </row>
-    <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1445">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
         <v>19</v>
       </c>
       <c r="B1446">
         <v>45</v>
       </c>
-    </row>
-    <row r="1447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1446">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
         <v>19</v>
       </c>
       <c r="B1447">
         <v>46</v>
       </c>
-    </row>
-    <row r="1448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1448" t="s">
         <v>19</v>
       </c>
       <c r="B1448">
         <v>47</v>
       </c>
-    </row>
-    <row r="1449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1448">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1449" t="s">
         <v>19</v>
       </c>
       <c r="B1449">
         <v>48</v>
       </c>
-    </row>
-    <row r="1450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1449">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1450" t="s">
         <v>19</v>
       </c>
       <c r="B1450">
         <v>49</v>
       </c>
-    </row>
-    <row r="1451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1450">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1451" t="s">
         <v>19</v>
       </c>
       <c r="B1451">
         <v>50</v>
       </c>
-    </row>
-    <row r="1452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1451">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
         <v>19</v>
       </c>
       <c r="B1452">
         <v>51</v>
       </c>
-    </row>
-    <row r="1453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1452">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1453" t="s">
         <v>19</v>
       </c>
       <c r="B1453">
         <v>52</v>
       </c>
-    </row>
-    <row r="1454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1454" t="s">
         <v>19</v>
       </c>
       <c r="B1454">
         <v>53</v>
       </c>
-    </row>
-    <row r="1455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1454">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1455" t="s">
         <v>19</v>
       </c>
       <c r="B1455">
         <v>54</v>
       </c>
-    </row>
-    <row r="1456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1455">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1456" t="s">
         <v>19</v>
       </c>
       <c r="B1456">
         <v>55</v>
       </c>
-    </row>
-    <row r="1457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1456">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1457" t="s">
         <v>19</v>
       </c>
       <c r="B1457">
         <v>56</v>
       </c>
-    </row>
-    <row r="1458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1458" t="s">
         <v>19</v>
       </c>
       <c r="B1458">
         <v>57</v>
       </c>
-    </row>
-    <row r="1459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1458">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1459" t="s">
         <v>19</v>
       </c>
       <c r="B1459">
         <v>58</v>
       </c>
-    </row>
-    <row r="1460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1459">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1460" t="s">
         <v>19</v>
       </c>
       <c r="B1460">
         <v>59</v>
       </c>
-    </row>
-    <row r="1461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1460">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1461" t="s">
         <v>19</v>
       </c>
       <c r="B1461">
         <v>60</v>
       </c>
-    </row>
-    <row r="1462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1462" t="s">
         <v>19</v>
       </c>
       <c r="B1462">
         <v>61</v>
       </c>
-    </row>
-    <row r="1463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1462">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1463" t="s">
         <v>19</v>
       </c>
       <c r="B1463">
         <v>62</v>
       </c>
-    </row>
-    <row r="1464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1463">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1464" t="s">
         <v>19</v>
       </c>
       <c r="B1464">
         <v>63</v>
       </c>
-    </row>
-    <row r="1465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1464">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1465" t="s">
         <v>19</v>
       </c>
       <c r="B1465">
         <v>64</v>
       </c>
-    </row>
-    <row r="1466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1465">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1466" t="s">
         <v>19</v>
       </c>
       <c r="B1466">
         <v>65</v>
       </c>
-    </row>
-    <row r="1467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1466">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1467" t="s">
         <v>19</v>
       </c>
       <c r="B1467">
         <v>66</v>
       </c>
-    </row>
-    <row r="1468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1467">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1468" t="s">
         <v>19</v>
       </c>
       <c r="B1468">
         <v>67</v>
       </c>
-    </row>
-    <row r="1469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1469" t="s">
         <v>19</v>
       </c>
       <c r="B1469">
         <v>68</v>
       </c>
-    </row>
-    <row r="1470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1469">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1470" t="s">
         <v>19</v>
       </c>
       <c r="B1470">
         <v>69</v>
       </c>
-    </row>
-    <row r="1471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1470">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1471" t="s">
         <v>19</v>
       </c>
       <c r="B1471">
         <v>70</v>
       </c>
-    </row>
-    <row r="1472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1471">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1472" t="s">
         <v>19</v>
       </c>
       <c r="B1472">
         <v>71</v>
       </c>
-    </row>
-    <row r="1473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1472">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1473" t="s">
         <v>19</v>
       </c>
       <c r="B1473">
         <v>72</v>
       </c>
-    </row>
-    <row r="1474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1473">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1474" t="s">
         <v>19</v>
       </c>
       <c r="B1474">
         <v>73</v>
       </c>
-    </row>
-    <row r="1475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1474">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
         <v>19</v>
       </c>
       <c r="B1475">
         <v>74</v>
       </c>
-    </row>
-    <row r="1476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1475">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
         <v>19</v>
       </c>
       <c r="B1476">
         <v>75</v>
       </c>
-    </row>
-    <row r="1477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1476">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
         <v>19</v>
       </c>
       <c r="B1477">
         <v>76</v>
       </c>
-    </row>
-    <row r="1478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1477">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1478" t="s">
         <v>19</v>
       </c>
       <c r="B1478">
         <v>77</v>
       </c>
-    </row>
-    <row r="1479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1479" t="s">
         <v>19</v>
       </c>
       <c r="B1479">
         <v>78</v>
       </c>
-    </row>
-    <row r="1480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1479">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1480" t="s">
         <v>19</v>
       </c>
       <c r="B1480">
         <v>79</v>
       </c>
-    </row>
-    <row r="1481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1480">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1481" t="s">
         <v>19</v>
       </c>
       <c r="B1481">
         <v>80</v>
       </c>
-    </row>
-    <row r="1482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1482" t="s">
         <v>19</v>
       </c>
       <c r="B1482">
         <v>81</v>
       </c>
-    </row>
-    <row r="1483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1482">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1483" t="s">
         <v>19</v>
       </c>
       <c r="B1483">
         <v>82</v>
       </c>
-    </row>
-    <row r="1484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1483">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
         <v>19</v>
       </c>
       <c r="B1484">
         <v>83</v>
       </c>
-    </row>
-    <row r="1485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1484">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
         <v>19</v>
       </c>
       <c r="B1485">
         <v>84</v>
       </c>
-    </row>
-    <row r="1486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
         <v>19</v>
       </c>
       <c r="B1486">
         <v>85</v>
       </c>
-    </row>
-    <row r="1487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1486">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1487" t="s">
         <v>19</v>
       </c>
       <c r="B1487">
         <v>86</v>
       </c>
-    </row>
-    <row r="1488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1488" t="s">
         <v>19</v>
       </c>
       <c r="B1488">
         <v>87</v>
+      </c>
+      <c r="C1488">
+        <v>4</v>
       </c>
     </row>
     <row r="1489" spans="1:5" x14ac:dyDescent="0.3">
@@ -15902,6 +16559,9 @@
       <c r="B1489">
         <v>88</v>
       </c>
+      <c r="C1489">
+        <v>5</v>
+      </c>
     </row>
     <row r="1490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1490" t="s">
@@ -15910,6 +16570,9 @@
       <c r="B1490">
         <v>89</v>
       </c>
+      <c r="C1490">
+        <v>5</v>
+      </c>
     </row>
     <row r="1491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1491" t="s">
@@ -15918,6 +16581,9 @@
       <c r="B1491">
         <v>90</v>
       </c>
+      <c r="C1491">
+        <v>7</v>
+      </c>
     </row>
     <row r="1492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
@@ -15926,6 +16592,9 @@
       <c r="B1492">
         <v>91</v>
       </c>
+      <c r="C1492">
+        <v>9</v>
+      </c>
     </row>
     <row r="1493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
@@ -15934,6 +16603,9 @@
       <c r="B1493">
         <v>92</v>
       </c>
+      <c r="C1493">
+        <v>2</v>
+      </c>
     </row>
     <row r="1494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1494" t="s">
@@ -15942,6 +16614,9 @@
       <c r="B1494">
         <v>93</v>
       </c>
+      <c r="C1494">
+        <v>6</v>
+      </c>
     </row>
     <row r="1495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
@@ -15950,6 +16625,9 @@
       <c r="B1495">
         <v>94</v>
       </c>
+      <c r="C1495">
+        <v>1</v>
+      </c>
     </row>
     <row r="1496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1496" t="s">
@@ -15958,6 +16636,9 @@
       <c r="B1496">
         <v>95</v>
       </c>
+      <c r="C1496">
+        <v>8</v>
+      </c>
     </row>
     <row r="1497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1497" t="s">
@@ -15966,6 +16647,9 @@
       <c r="B1497">
         <v>96</v>
       </c>
+      <c r="C1497">
+        <v>3</v>
+      </c>
     </row>
     <row r="1498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1498" t="s">
@@ -15974,6 +16658,9 @@
       <c r="B1498">
         <v>97</v>
       </c>
+      <c r="C1498">
+        <v>1</v>
+      </c>
     </row>
     <row r="1499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
@@ -15982,6 +16669,9 @@
       <c r="B1499">
         <v>98</v>
       </c>
+      <c r="C1499">
+        <v>8</v>
+      </c>
     </row>
     <row r="1500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
@@ -15990,6 +16680,9 @@
       <c r="B1500">
         <v>99</v>
       </c>
+      <c r="C1500">
+        <v>8</v>
+      </c>
     </row>
     <row r="1501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
@@ -15997,6 +16690,9 @@
       </c>
       <c r="B1501">
         <v>100</v>
+      </c>
+      <c r="C1501">
+        <v>10</v>
       </c>
     </row>
     <row r="1502" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE33BD-CF54-4AD8-B632-03E533F6455F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80F8BB0-A826-46E9-8BF1-A6D86EF4AF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="0" windowWidth="11532" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1026" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1030" sqref="C1030"/>
+      <pane ySplit="1" topLeftCell="A962" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C979" sqref="C979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10844,6 +10844,9 @@
       <c r="B949">
         <v>48</v>
       </c>
+      <c r="C949">
+        <v>6</v>
+      </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
@@ -10852,6 +10855,9 @@
       <c r="B950">
         <v>49</v>
       </c>
+      <c r="C950">
+        <v>8</v>
+      </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
@@ -10860,6 +10866,9 @@
       <c r="B951">
         <v>50</v>
       </c>
+      <c r="C951">
+        <v>9</v>
+      </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
@@ -10868,6 +10877,9 @@
       <c r="B952">
         <v>51</v>
       </c>
+      <c r="C952">
+        <v>8</v>
+      </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
@@ -10876,6 +10888,9 @@
       <c r="B953">
         <v>52</v>
       </c>
+      <c r="C953">
+        <v>9</v>
+      </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
@@ -10884,6 +10899,9 @@
       <c r="B954">
         <v>53</v>
       </c>
+      <c r="C954">
+        <v>7</v>
+      </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
@@ -10892,6 +10910,9 @@
       <c r="B955">
         <v>54</v>
       </c>
+      <c r="C955">
+        <v>9</v>
+      </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
@@ -10900,6 +10921,9 @@
       <c r="B956">
         <v>55</v>
       </c>
+      <c r="C956">
+        <v>7</v>
+      </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
@@ -10908,6 +10932,9 @@
       <c r="B957">
         <v>56</v>
       </c>
+      <c r="C957">
+        <v>1</v>
+      </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
@@ -10916,6 +10943,9 @@
       <c r="B958">
         <v>57</v>
       </c>
+      <c r="C958">
+        <v>8</v>
+      </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
@@ -10924,6 +10954,9 @@
       <c r="B959">
         <v>58</v>
       </c>
+      <c r="C959">
+        <v>10</v>
+      </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
@@ -10932,152 +10965,209 @@
       <c r="B960">
         <v>59</v>
       </c>
-    </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C960">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>14</v>
       </c>
       <c r="B961">
         <v>60</v>
       </c>
-    </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>14</v>
       </c>
       <c r="B962">
         <v>61</v>
       </c>
-    </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C962">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>14</v>
       </c>
       <c r="B963">
         <v>62</v>
       </c>
-    </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C963">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>14</v>
       </c>
       <c r="B964">
         <v>63</v>
       </c>
-    </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C964">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>14</v>
       </c>
       <c r="B965">
         <v>64</v>
       </c>
-    </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C965">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>14</v>
       </c>
       <c r="B966">
         <v>65</v>
       </c>
-    </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C966">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>14</v>
       </c>
       <c r="B967">
         <v>66</v>
       </c>
-    </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C967">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>14</v>
       </c>
       <c r="B968">
         <v>67</v>
       </c>
-    </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C968">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>14</v>
       </c>
       <c r="B969">
         <v>68</v>
       </c>
-    </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C969">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
         <v>14</v>
       </c>
       <c r="B970">
         <v>69</v>
       </c>
-    </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C970">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
         <v>14</v>
       </c>
       <c r="B971">
         <v>70</v>
       </c>
-    </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C971">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>14</v>
       </c>
       <c r="B972">
         <v>71</v>
       </c>
-    </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C972">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>14</v>
       </c>
       <c r="B973">
         <v>72</v>
       </c>
-    </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C973">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>14</v>
       </c>
       <c r="B974">
         <v>73</v>
       </c>
-    </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>14</v>
       </c>
       <c r="B975">
         <v>74</v>
       </c>
-    </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C975">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>14</v>
       </c>
       <c r="B976">
         <v>75</v>
       </c>
-    </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C976">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
         <v>14</v>
       </c>
       <c r="B977">
         <v>76</v>
       </c>
-    </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C977">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
         <v>14</v>
       </c>
       <c r="B978">
         <v>77</v>
       </c>
-    </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C978">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
         <v>14</v>
       </c>
@@ -11085,7 +11175,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>14</v>
       </c>
@@ -11093,7 +11183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
         <v>14</v>
       </c>
@@ -11101,7 +11191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
         <v>14</v>
       </c>
@@ -11109,7 +11199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
         <v>14</v>
       </c>
@@ -11117,7 +11207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
         <v>14</v>
       </c>
@@ -11125,7 +11215,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>14</v>
       </c>
@@ -11133,7 +11223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
         <v>14</v>
       </c>
@@ -11141,7 +11231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>14</v>
       </c>
@@ -11149,7 +11239,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
         <v>14</v>
       </c>
@@ -11157,7 +11247,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
         <v>14</v>
       </c>
@@ -11165,7 +11255,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>14</v>
       </c>
@@ -11173,7 +11263,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
         <v>14</v>
       </c>
@@ -11181,7 +11271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
         <v>14</v>
       </c>
@@ -11420,7 +11510,7 @@
         <v>12</v>
       </c>
       <c r="C1013">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.3">
@@ -11431,7 +11521,7 @@
         <v>13</v>
       </c>
       <c r="C1014">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.3">
@@ -11442,7 +11532,7 @@
         <v>14</v>
       </c>
       <c r="C1015">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.3">
@@ -11453,7 +11543,7 @@
         <v>15</v>
       </c>
       <c r="C1016">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.3">
@@ -11464,7 +11554,7 @@
         <v>16</v>
       </c>
       <c r="C1017">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.3">
@@ -11486,7 +11576,7 @@
         <v>18</v>
       </c>
       <c r="C1019">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.3">
@@ -11497,7 +11587,7 @@
         <v>19</v>
       </c>
       <c r="C1020">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.3">
@@ -11508,7 +11598,7 @@
         <v>20</v>
       </c>
       <c r="C1021">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.3">
@@ -11530,7 +11620,7 @@
         <v>22</v>
       </c>
       <c r="C1023">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.3">
@@ -11552,7 +11642,7 @@
         <v>24</v>
       </c>
       <c r="C1025">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
@@ -11574,7 +11664,7 @@
         <v>26</v>
       </c>
       <c r="C1027">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
@@ -11585,7 +11675,7 @@
         <v>27</v>
       </c>
       <c r="C1028">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
@@ -11606,6 +11696,9 @@
       <c r="B1030">
         <v>29</v>
       </c>
+      <c r="C1030">
+        <v>6</v>
+      </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
@@ -11614,6 +11707,9 @@
       <c r="B1031">
         <v>30</v>
       </c>
+      <c r="C1031">
+        <v>6</v>
+      </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
@@ -11622,6 +11718,9 @@
       <c r="B1032">
         <v>31</v>
       </c>
+      <c r="C1032">
+        <v>4</v>
+      </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
@@ -11630,6 +11729,9 @@
       <c r="B1033">
         <v>32</v>
       </c>
+      <c r="C1033">
+        <v>9</v>
+      </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
@@ -11638,6 +11740,9 @@
       <c r="B1034">
         <v>33</v>
       </c>
+      <c r="C1034">
+        <v>5</v>
+      </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
@@ -11646,6 +11751,9 @@
       <c r="B1035">
         <v>34</v>
       </c>
+      <c r="C1035">
+        <v>6</v>
+      </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
@@ -11654,6 +11762,9 @@
       <c r="B1036">
         <v>35</v>
       </c>
+      <c r="C1036">
+        <v>8</v>
+      </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
@@ -11662,6 +11773,9 @@
       <c r="B1037">
         <v>36</v>
       </c>
+      <c r="C1037">
+        <v>1</v>
+      </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
@@ -11670,6 +11784,9 @@
       <c r="B1038">
         <v>37</v>
       </c>
+      <c r="C1038">
+        <v>4</v>
+      </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
@@ -11678,6 +11795,9 @@
       <c r="B1039">
         <v>38</v>
       </c>
+      <c r="C1039">
+        <v>7</v>
+      </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
@@ -11686,389 +11806,536 @@
       <c r="B1040">
         <v>39</v>
       </c>
-    </row>
-    <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1040">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
         <v>15</v>
       </c>
       <c r="B1041">
         <v>40</v>
       </c>
-    </row>
-    <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1041">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
         <v>15</v>
       </c>
       <c r="B1042">
         <v>41</v>
       </c>
-    </row>
-    <row r="1043" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1042">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
         <v>15</v>
       </c>
       <c r="B1043">
         <v>42</v>
       </c>
-    </row>
-    <row r="1044" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1043">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
         <v>15</v>
       </c>
       <c r="B1044">
         <v>43</v>
       </c>
-    </row>
-    <row r="1045" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1044">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
         <v>15</v>
       </c>
       <c r="B1045">
         <v>44</v>
       </c>
-    </row>
-    <row r="1046" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1045">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
         <v>15</v>
       </c>
       <c r="B1046">
         <v>45</v>
       </c>
-    </row>
-    <row r="1047" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1046">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
         <v>15</v>
       </c>
       <c r="B1047">
         <v>46</v>
       </c>
-    </row>
-    <row r="1048" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1047">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
         <v>15</v>
       </c>
       <c r="B1048">
         <v>47</v>
       </c>
-    </row>
-    <row r="1049" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1048">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
         <v>15</v>
       </c>
       <c r="B1049">
         <v>48</v>
       </c>
-    </row>
-    <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1049">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
         <v>15</v>
       </c>
       <c r="B1050">
         <v>49</v>
       </c>
-    </row>
-    <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1050">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
         <v>15</v>
       </c>
       <c r="B1051">
         <v>50</v>
       </c>
-    </row>
-    <row r="1052" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1051">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
         <v>15</v>
       </c>
       <c r="B1052">
         <v>51</v>
       </c>
-    </row>
-    <row r="1053" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1052">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
         <v>15</v>
       </c>
       <c r="B1053">
         <v>52</v>
       </c>
-    </row>
-    <row r="1054" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1053">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
         <v>15</v>
       </c>
       <c r="B1054">
         <v>53</v>
       </c>
-    </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1054">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
         <v>15</v>
       </c>
       <c r="B1055">
         <v>54</v>
       </c>
-    </row>
-    <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1055">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
         <v>15</v>
       </c>
       <c r="B1056">
         <v>55</v>
       </c>
-    </row>
-    <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1056">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
         <v>15</v>
       </c>
       <c r="B1057">
         <v>56</v>
       </c>
-    </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1057">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
         <v>15</v>
       </c>
       <c r="B1058">
         <v>57</v>
       </c>
-    </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1058">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
         <v>15</v>
       </c>
       <c r="B1059">
         <v>58</v>
       </c>
-    </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1059">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
         <v>15</v>
       </c>
       <c r="B1060">
         <v>59</v>
       </c>
-    </row>
-    <row r="1061" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1060">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
         <v>15</v>
       </c>
       <c r="B1061">
         <v>60</v>
       </c>
-    </row>
-    <row r="1062" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1061">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
         <v>15</v>
       </c>
       <c r="B1062">
         <v>61</v>
       </c>
-    </row>
-    <row r="1063" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1062">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
         <v>15</v>
       </c>
       <c r="B1063">
         <v>62</v>
       </c>
-    </row>
-    <row r="1064" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1063">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
         <v>15</v>
       </c>
       <c r="B1064">
         <v>63</v>
       </c>
-    </row>
-    <row r="1065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1064">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
         <v>15</v>
       </c>
       <c r="B1065">
         <v>64</v>
       </c>
-    </row>
-    <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
         <v>15</v>
       </c>
       <c r="B1066">
         <v>65</v>
       </c>
-    </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1066">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
         <v>15</v>
       </c>
       <c r="B1067">
         <v>66</v>
       </c>
-    </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1067">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
         <v>15</v>
       </c>
       <c r="B1068">
         <v>67</v>
       </c>
-    </row>
-    <row r="1069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1068">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
         <v>15</v>
       </c>
       <c r="B1069">
         <v>68</v>
       </c>
-    </row>
-    <row r="1070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1069">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
         <v>15</v>
       </c>
       <c r="B1070">
         <v>69</v>
       </c>
-    </row>
-    <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1070">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
         <v>15</v>
       </c>
       <c r="B1071">
         <v>70</v>
       </c>
-    </row>
-    <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1071">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
         <v>15</v>
       </c>
       <c r="B1072">
         <v>71</v>
       </c>
-    </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1072">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
         <v>15</v>
       </c>
       <c r="B1073">
         <v>72</v>
       </c>
-    </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
         <v>15</v>
       </c>
       <c r="B1074">
         <v>73</v>
       </c>
-    </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
         <v>15</v>
       </c>
       <c r="B1075">
         <v>74</v>
       </c>
-    </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1075">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
         <v>15</v>
       </c>
       <c r="B1076">
         <v>75</v>
       </c>
-    </row>
-    <row r="1077" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1076">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
         <v>15</v>
       </c>
       <c r="B1077">
         <v>76</v>
       </c>
-    </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1077">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
         <v>15</v>
       </c>
       <c r="B1078">
         <v>77</v>
       </c>
-    </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
         <v>15</v>
       </c>
       <c r="B1079">
         <v>78</v>
       </c>
-    </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1079">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
         <v>15</v>
       </c>
       <c r="B1080">
         <v>79</v>
       </c>
-    </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1080">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
         <v>15</v>
       </c>
       <c r="B1081">
         <v>80</v>
       </c>
-    </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1081">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
         <v>15</v>
       </c>
       <c r="B1082">
         <v>81</v>
       </c>
-    </row>
-    <row r="1083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1082">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
         <v>15</v>
       </c>
       <c r="B1083">
         <v>82</v>
       </c>
-    </row>
-    <row r="1084" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1083">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
         <v>15</v>
       </c>
       <c r="B1084">
         <v>83</v>
       </c>
-    </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1084">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
         <v>15</v>
       </c>
       <c r="B1085">
         <v>84</v>
       </c>
-    </row>
-    <row r="1086" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1085">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
         <v>15</v>
       </c>
       <c r="B1086">
         <v>85</v>
       </c>
-    </row>
-    <row r="1087" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1086">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
         <v>15</v>
       </c>
       <c r="B1087">
         <v>86</v>
       </c>
-    </row>
-    <row r="1088" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1087">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
         <v>15</v>
       </c>
       <c r="B1088">
         <v>87</v>
+      </c>
+      <c r="C1088">
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.3">
@@ -12078,6 +12345,9 @@
       <c r="B1089">
         <v>88</v>
       </c>
+      <c r="C1089">
+        <v>5</v>
+      </c>
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
@@ -12086,6 +12356,9 @@
       <c r="B1090">
         <v>89</v>
       </c>
+      <c r="C1090">
+        <v>8</v>
+      </c>
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
@@ -12094,6 +12367,9 @@
       <c r="B1091">
         <v>90</v>
       </c>
+      <c r="C1091">
+        <v>5</v>
+      </c>
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
@@ -12102,6 +12378,9 @@
       <c r="B1092">
         <v>91</v>
       </c>
+      <c r="C1092">
+        <v>5</v>
+      </c>
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
@@ -12110,6 +12389,9 @@
       <c r="B1093">
         <v>92</v>
       </c>
+      <c r="C1093">
+        <v>1</v>
+      </c>
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
@@ -12118,6 +12400,9 @@
       <c r="B1094">
         <v>93</v>
       </c>
+      <c r="C1094">
+        <v>3</v>
+      </c>
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
@@ -12126,6 +12411,9 @@
       <c r="B1095">
         <v>94</v>
       </c>
+      <c r="C1095">
+        <v>6</v>
+      </c>
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
@@ -12134,6 +12422,9 @@
       <c r="B1096">
         <v>95</v>
       </c>
+      <c r="C1096">
+        <v>2</v>
+      </c>
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
@@ -12142,6 +12433,9 @@
       <c r="B1097">
         <v>96</v>
       </c>
+      <c r="C1097">
+        <v>9</v>
+      </c>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
@@ -12150,6 +12444,9 @@
       <c r="B1098">
         <v>97</v>
       </c>
+      <c r="C1098">
+        <v>5</v>
+      </c>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
@@ -12158,6 +12455,9 @@
       <c r="B1099">
         <v>98</v>
       </c>
+      <c r="C1099">
+        <v>8</v>
+      </c>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
@@ -12166,6 +12466,9 @@
       <c r="B1100">
         <v>99</v>
       </c>
+      <c r="C1100">
+        <v>7</v>
+      </c>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
@@ -12173,6 +12476,9 @@
       </c>
       <c r="B1101">
         <v>100</v>
+      </c>
+      <c r="C1101">
+        <v>8</v>
       </c>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80F8BB0-A826-46E9-8BF1-A6D86EF4AF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9BD11-87A0-4929-A57D-A84AF416AD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A962" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C979" sqref="C979"/>
+      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7175,6 +7175,9 @@
       <c r="B556">
         <v>55</v>
       </c>
+      <c r="C556">
+        <v>7</v>
+      </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
@@ -7183,6 +7186,9 @@
       <c r="B557">
         <v>56</v>
       </c>
+      <c r="C557">
+        <v>8</v>
+      </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
@@ -7191,6 +7197,9 @@
       <c r="B558">
         <v>57</v>
       </c>
+      <c r="C558">
+        <v>5</v>
+      </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
@@ -7199,6 +7208,9 @@
       <c r="B559">
         <v>58</v>
       </c>
+      <c r="C559">
+        <v>5</v>
+      </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
@@ -7207,261 +7219,360 @@
       <c r="B560">
         <v>59</v>
       </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C560">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>10</v>
       </c>
       <c r="B561">
         <v>60</v>
       </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>10</v>
       </c>
       <c r="B562">
         <v>61</v>
       </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C562">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>10</v>
       </c>
       <c r="B563">
         <v>62</v>
       </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C563">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>10</v>
       </c>
       <c r="B564">
         <v>63</v>
       </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C564">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>10</v>
       </c>
       <c r="B565">
         <v>64</v>
       </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C565">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>10</v>
       </c>
       <c r="B566">
         <v>65</v>
       </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C566">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>10</v>
       </c>
       <c r="B567">
         <v>66</v>
       </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C567">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>10</v>
       </c>
       <c r="B568">
         <v>67</v>
       </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C568">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>10</v>
       </c>
       <c r="B569">
         <v>68</v>
       </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>10</v>
       </c>
       <c r="B570">
         <v>69</v>
       </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C570">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>10</v>
       </c>
       <c r="B571">
         <v>70</v>
       </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C571">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>10</v>
       </c>
       <c r="B572">
         <v>71</v>
       </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C572">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>10</v>
       </c>
       <c r="B573">
         <v>72</v>
       </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C573">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>10</v>
       </c>
       <c r="B574">
         <v>73</v>
       </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>10</v>
       </c>
       <c r="B575">
         <v>74</v>
       </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>10</v>
       </c>
       <c r="B576">
         <v>75</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C576">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>10</v>
       </c>
       <c r="B577">
         <v>76</v>
       </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C577">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>10</v>
       </c>
       <c r="B578">
         <v>77</v>
       </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>10</v>
       </c>
       <c r="B579">
         <v>78</v>
       </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C579">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>10</v>
       </c>
       <c r="B580">
         <v>79</v>
       </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C580">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>10</v>
       </c>
       <c r="B581">
         <v>80</v>
       </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C581">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>10</v>
       </c>
       <c r="B582">
         <v>81</v>
       </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C582">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>10</v>
       </c>
       <c r="B583">
         <v>82</v>
       </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C583">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>10</v>
       </c>
       <c r="B584">
         <v>83</v>
       </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>10</v>
       </c>
       <c r="B585">
         <v>84</v>
       </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>10</v>
       </c>
       <c r="B586">
         <v>85</v>
       </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C586">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>10</v>
       </c>
       <c r="B587">
         <v>86</v>
       </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C587">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>10</v>
       </c>
       <c r="B588">
         <v>87</v>
       </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C588">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>10</v>
       </c>
       <c r="B589">
         <v>88</v>
       </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C589">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>10</v>
       </c>
       <c r="B590">
         <v>89</v>
       </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>10</v>
       </c>
       <c r="B591">
         <v>90</v>
       </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C591">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>10</v>
       </c>
       <c r="B592">
         <v>91</v>
+      </c>
+      <c r="C592">
+        <v>5</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
@@ -7471,6 +7582,9 @@
       <c r="B593">
         <v>92</v>
       </c>
+      <c r="C593">
+        <v>2</v>
+      </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
@@ -7479,6 +7593,9 @@
       <c r="B594">
         <v>93</v>
       </c>
+      <c r="C594">
+        <v>2</v>
+      </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
@@ -7487,6 +7604,9 @@
       <c r="B595">
         <v>94</v>
       </c>
+      <c r="C595">
+        <v>8</v>
+      </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
@@ -7495,6 +7615,9 @@
       <c r="B596">
         <v>95</v>
       </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
@@ -7503,6 +7626,9 @@
       <c r="B597">
         <v>96</v>
       </c>
+      <c r="C597">
+        <v>2</v>
+      </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
@@ -7511,6 +7637,9 @@
       <c r="B598">
         <v>97</v>
       </c>
+      <c r="C598">
+        <v>5</v>
+      </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
@@ -7519,6 +7648,9 @@
       <c r="B599">
         <v>98</v>
       </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
@@ -7527,6 +7659,9 @@
       <c r="B600">
         <v>99</v>
       </c>
+      <c r="C600">
+        <v>4</v>
+      </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
@@ -7535,6 +7670,9 @@
       <c r="B601">
         <v>100</v>
       </c>
+      <c r="C601">
+        <v>4</v>
+      </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
@@ -9961,6 +10099,9 @@
       <c r="B860">
         <v>59</v>
       </c>
+      <c r="C860">
+        <v>6</v>
+      </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
@@ -9969,6 +10110,9 @@
       <c r="B861">
         <v>60</v>
       </c>
+      <c r="C861">
+        <v>5</v>
+      </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
@@ -9977,6 +10121,9 @@
       <c r="B862">
         <v>61</v>
       </c>
+      <c r="C862">
+        <v>2</v>
+      </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
@@ -9985,6 +10132,9 @@
       <c r="B863">
         <v>62</v>
       </c>
+      <c r="C863">
+        <v>7</v>
+      </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
@@ -9993,261 +10143,360 @@
       <c r="B864">
         <v>63</v>
       </c>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C864">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>13</v>
       </c>
       <c r="B865">
         <v>64</v>
       </c>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>13</v>
       </c>
       <c r="B866">
         <v>65</v>
       </c>
-    </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C866">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>13</v>
       </c>
       <c r="B867">
         <v>66</v>
       </c>
-    </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C867">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>13</v>
       </c>
       <c r="B868">
         <v>67</v>
       </c>
-    </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C868">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>13</v>
       </c>
       <c r="B869">
         <v>68</v>
       </c>
-    </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C869">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>13</v>
       </c>
       <c r="B870">
         <v>69</v>
       </c>
-    </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C870">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>13</v>
       </c>
       <c r="B871">
         <v>70</v>
       </c>
-    </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C871">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>13</v>
       </c>
       <c r="B872">
         <v>71</v>
       </c>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C872">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>13</v>
       </c>
       <c r="B873">
         <v>72</v>
       </c>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>13</v>
       </c>
       <c r="B874">
         <v>73</v>
       </c>
-    </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C874">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>13</v>
       </c>
       <c r="B875">
         <v>74</v>
       </c>
-    </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C875">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>13</v>
       </c>
       <c r="B876">
         <v>75</v>
       </c>
-    </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C876">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>13</v>
       </c>
       <c r="B877">
         <v>76</v>
       </c>
-    </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C877">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>13</v>
       </c>
       <c r="B878">
         <v>77</v>
       </c>
-    </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C878">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>13</v>
       </c>
       <c r="B879">
         <v>78</v>
       </c>
-    </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C879">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>13</v>
       </c>
       <c r="B880">
         <v>79</v>
       </c>
-    </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C880">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>13</v>
       </c>
       <c r="B881">
         <v>80</v>
       </c>
-    </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C881">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>13</v>
       </c>
       <c r="B882">
         <v>81</v>
       </c>
-    </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C882">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>13</v>
       </c>
       <c r="B883">
         <v>82</v>
       </c>
-    </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C883">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>13</v>
       </c>
       <c r="B884">
         <v>83</v>
       </c>
-    </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C884">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>13</v>
       </c>
       <c r="B885">
         <v>84</v>
       </c>
-    </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C885">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>13</v>
       </c>
       <c r="B886">
         <v>85</v>
       </c>
-    </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C886">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>13</v>
       </c>
       <c r="B887">
         <v>86</v>
       </c>
-    </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C887">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>13</v>
       </c>
       <c r="B888">
         <v>87</v>
       </c>
-    </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C888">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>13</v>
       </c>
       <c r="B889">
         <v>88</v>
       </c>
-    </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C889">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>13</v>
       </c>
       <c r="B890">
         <v>89</v>
       </c>
-    </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C890">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>13</v>
       </c>
       <c r="B891">
         <v>90</v>
       </c>
-    </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C891">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>13</v>
       </c>
       <c r="B892">
         <v>91</v>
       </c>
-    </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>13</v>
       </c>
       <c r="B893">
         <v>92</v>
       </c>
-    </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C893">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>13</v>
       </c>
       <c r="B894">
         <v>93</v>
       </c>
-    </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>13</v>
       </c>
       <c r="B895">
         <v>94</v>
       </c>
-    </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C895">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>13</v>
       </c>
       <c r="B896">
         <v>95</v>
+      </c>
+      <c r="C896">
+        <v>8</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.3">
@@ -10257,6 +10506,9 @@
       <c r="B897">
         <v>96</v>
       </c>
+      <c r="C897">
+        <v>3</v>
+      </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
@@ -10265,6 +10517,9 @@
       <c r="B898">
         <v>97</v>
       </c>
+      <c r="C898">
+        <v>2</v>
+      </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
@@ -10273,6 +10528,9 @@
       <c r="B899">
         <v>98</v>
       </c>
+      <c r="C899">
+        <v>2</v>
+      </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
@@ -10281,6 +10539,9 @@
       <c r="B900">
         <v>99</v>
       </c>
+      <c r="C900">
+        <v>7</v>
+      </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
@@ -10289,6 +10550,9 @@
       <c r="B901">
         <v>100</v>
       </c>
+      <c r="C901">
+        <v>4</v>
+      </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
@@ -11174,6 +11438,9 @@
       <c r="B979">
         <v>78</v>
       </c>
+      <c r="C979">
+        <v>5</v>
+      </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
@@ -11182,6 +11449,9 @@
       <c r="B980">
         <v>79</v>
       </c>
+      <c r="C980">
+        <v>9</v>
+      </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
@@ -11190,6 +11460,9 @@
       <c r="B981">
         <v>80</v>
       </c>
+      <c r="C981">
+        <v>3</v>
+      </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
@@ -11198,6 +11471,9 @@
       <c r="B982">
         <v>81</v>
       </c>
+      <c r="C982">
+        <v>8</v>
+      </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
@@ -11206,6 +11482,9 @@
       <c r="B983">
         <v>82</v>
       </c>
+      <c r="C983">
+        <v>5</v>
+      </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
@@ -11214,6 +11493,9 @@
       <c r="B984">
         <v>83</v>
       </c>
+      <c r="C984">
+        <v>2</v>
+      </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
@@ -11222,6 +11504,9 @@
       <c r="B985">
         <v>84</v>
       </c>
+      <c r="C985">
+        <v>7</v>
+      </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
@@ -11230,6 +11515,9 @@
       <c r="B986">
         <v>85</v>
       </c>
+      <c r="C986">
+        <v>8</v>
+      </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
@@ -11238,6 +11526,9 @@
       <c r="B987">
         <v>86</v>
       </c>
+      <c r="C987">
+        <v>2</v>
+      </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
@@ -11246,6 +11537,9 @@
       <c r="B988">
         <v>87</v>
       </c>
+      <c r="C988">
+        <v>2</v>
+      </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
@@ -11254,6 +11548,9 @@
       <c r="B989">
         <v>88</v>
       </c>
+      <c r="C989">
+        <v>7</v>
+      </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
@@ -11262,6 +11559,9 @@
       <c r="B990">
         <v>89</v>
       </c>
+      <c r="C990">
+        <v>8</v>
+      </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
@@ -11270,6 +11570,9 @@
       <c r="B991">
         <v>90</v>
       </c>
+      <c r="C991">
+        <v>6</v>
+      </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
@@ -11278,6 +11581,9 @@
       <c r="B992">
         <v>91</v>
       </c>
+      <c r="C992">
+        <v>7</v>
+      </c>
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
@@ -11286,6 +11592,9 @@
       <c r="B993">
         <v>92</v>
       </c>
+      <c r="C993">
+        <v>2</v>
+      </c>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
@@ -11294,6 +11603,9 @@
       <c r="B994">
         <v>93</v>
       </c>
+      <c r="C994">
+        <v>4</v>
+      </c>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
@@ -11302,6 +11614,9 @@
       <c r="B995">
         <v>94</v>
       </c>
+      <c r="C995">
+        <v>4</v>
+      </c>
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
@@ -11310,6 +11625,9 @@
       <c r="B996">
         <v>95</v>
       </c>
+      <c r="C996">
+        <v>9</v>
+      </c>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
@@ -11318,6 +11636,9 @@
       <c r="B997">
         <v>96</v>
       </c>
+      <c r="C997">
+        <v>8</v>
+      </c>
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
@@ -11326,6 +11647,9 @@
       <c r="B998">
         <v>97</v>
       </c>
+      <c r="C998">
+        <v>8</v>
+      </c>
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
@@ -11334,6 +11658,9 @@
       <c r="B999">
         <v>98</v>
       </c>
+      <c r="C999">
+        <v>6</v>
+      </c>
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
@@ -11342,6 +11669,9 @@
       <c r="B1000">
         <v>99</v>
       </c>
+      <c r="C1000">
+        <v>7</v>
+      </c>
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
@@ -11349,6 +11679,9 @@
       </c>
       <c r="B1001">
         <v>100</v>
+      </c>
+      <c r="C1001">
+        <v>6</v>
       </c>
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/cw_grading.xlsx
+++ b/Data/cw_grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9BD11-87A0-4929-A57D-A84AF416AD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999FE848-060B-4527-9888-95FC7637B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
   <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C802" sqref="C802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7821,6 +7821,9 @@
       <c r="B612">
         <v>11</v>
       </c>
+      <c r="C612">
+        <v>4</v>
+      </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
@@ -7829,6 +7832,9 @@
       <c r="B613">
         <v>12</v>
       </c>
+      <c r="C613">
+        <v>2</v>
+      </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
@@ -7837,6 +7843,9 @@
       <c r="B614">
         <v>13</v>
       </c>
+      <c r="C614">
+        <v>3</v>
+      </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
@@ -7845,6 +7854,9 @@
       <c r="B615">
         <v>14</v>
       </c>
+      <c r="C615">
+        <v>2</v>
+      </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
@@ -7853,6 +7865,9 @@
       <c r="B616">
         <v>15</v>
       </c>
+      <c r="C616">
+        <v>3</v>
+      </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
@@ -7861,6 +7876,9 @@
       <c r="B617">
         <v>16</v>
       </c>
+      <c r="C617">
+        <v>2</v>
+      </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
@@ -7869,6 +7887,9 @@
       <c r="B618">
         <v>17</v>
       </c>
+      <c r="C618">
+        <v>3</v>
+      </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
@@ -7877,6 +7898,9 @@
       <c r="B619">
         <v>18</v>
       </c>
+      <c r="C619">
+        <v>2</v>
+      </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
@@ -7885,6 +7909,9 @@
       <c r="B620">
         <v>19</v>
       </c>
+      <c r="C620">
+        <v>2</v>
+      </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
@@ -7893,6 +7920,9 @@
       <c r="B621">
         <v>20</v>
       </c>
+      <c r="C621">
+        <v>2</v>
+      </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
@@ -7901,6 +7931,9 @@
       <c r="B622">
         <v>21</v>
       </c>
+      <c r="C622">
+        <v>7</v>
+      </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
@@ -7909,6 +7942,9 @@
       <c r="B623">
         <v>22</v>
       </c>
+      <c r="C623">
+        <v>6</v>
+      </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
@@ -7917,517 +7953,712 @@
       <c r="B624">
         <v>23</v>
       </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C624">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>11</v>
       </c>
       <c r="B625">
         <v>24</v>
       </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C625">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>11</v>
       </c>
       <c r="B626">
         <v>25</v>
       </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>11</v>
       </c>
       <c r="B627">
         <v>26</v>
       </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C627">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>11</v>
       </c>
       <c r="B628">
         <v>27</v>
       </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C628">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>11</v>
       </c>
       <c r="B629">
         <v>28</v>
       </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>11</v>
       </c>
       <c r="B630">
         <v>29</v>
       </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C630">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>11</v>
       </c>
       <c r="B631">
         <v>30</v>
       </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C631">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>11</v>
       </c>
       <c r="B632">
         <v>31</v>
       </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>11</v>
       </c>
       <c r="B633">
         <v>32</v>
       </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C633">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>11</v>
       </c>
       <c r="B634">
         <v>33</v>
       </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C634">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>11</v>
       </c>
       <c r="B635">
         <v>34</v>
       </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C635">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>11</v>
       </c>
       <c r="B636">
         <v>35</v>
       </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C636">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>11</v>
       </c>
       <c r="B637">
         <v>36</v>
       </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C637">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>11</v>
       </c>
       <c r="B638">
         <v>37</v>
       </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C638">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>11</v>
       </c>
       <c r="B639">
         <v>38</v>
       </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>11</v>
       </c>
       <c r="B640">
         <v>39</v>
       </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>11</v>
       </c>
       <c r="B641">
         <v>40</v>
       </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>11</v>
       </c>
       <c r="B642">
         <v>41</v>
       </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>11</v>
       </c>
       <c r="B643">
         <v>42</v>
       </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>11</v>
       </c>
       <c r="B644">
         <v>43</v>
       </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C644">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>11</v>
       </c>
       <c r="B645">
         <v>44</v>
       </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C645">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>11</v>
       </c>
       <c r="B646">
         <v>45</v>
       </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C646">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>11</v>
       </c>
       <c r="B647">
         <v>46</v>
       </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C647">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>11</v>
       </c>
       <c r="B648">
         <v>47</v>
       </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C648">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>11</v>
       </c>
       <c r="B649">
         <v>48</v>
       </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>11</v>
       </c>
       <c r="B650">
         <v>49</v>
       </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>11</v>
       </c>
       <c r="B651">
         <v>50</v>
       </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C651">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>11</v>
       </c>
       <c r="B652">
         <v>51</v>
       </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C652">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>11</v>
       </c>
       <c r="B653">
         <v>52</v>
       </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>11</v>
       </c>
       <c r="B654">
         <v>53</v>
       </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C654">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>11</v>
       </c>
       <c r="B655">
         <v>54</v>
       </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C655">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>11</v>
       </c>
       <c r="B656">
         <v>55</v>
       </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C656">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>11</v>
       </c>
       <c r="B657">
         <v>56</v>
       </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C657">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>11</v>
       </c>
       <c r="B658">
         <v>57</v>
       </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C658">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>11</v>
       </c>
       <c r="B659">
         <v>58</v>
       </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C659">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>11</v>
       </c>
       <c r="B660">
         <v>59</v>
       </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>11</v>
       </c>
       <c r="B661">
         <v>60</v>
       </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>11</v>
       </c>
       <c r="B662">
         <v>61</v>
       </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C662">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>11</v>
       </c>
       <c r="B663">
         <v>62</v>
       </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>11</v>
       </c>
       <c r="B664">
         <v>63</v>
       </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>11</v>
       </c>
       <c r="B665">
         <v>64</v>
       </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C665">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>11</v>
       </c>
       <c r="B666">
         <v>65</v>
       </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C666">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>11</v>
       </c>
       <c r="B667">
         <v>66</v>
       </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C667">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>11</v>
       </c>
       <c r="B668">
         <v>67</v>
       </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C668">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>11</v>
       </c>
       <c r="B669">
         <v>68</v>
       </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C669">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>11</v>
       </c>
       <c r="B670">
         <v>69</v>
       </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C670">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>11</v>
       </c>
       <c r="B671">
         <v>70</v>
       </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C671">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>11</v>
       </c>
       <c r="B672">
         <v>71</v>
       </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C672">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>11</v>
       </c>
       <c r="B673">
         <v>72</v>
       </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C673">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>11</v>
       </c>
       <c r="B674">
         <v>73</v>
       </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>11</v>
       </c>
       <c r="B675">
         <v>74</v>
       </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C675">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>11</v>
       </c>
       <c r="B676">
         <v>75</v>
       </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C676">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>11</v>
       </c>
       <c r="B677">
         <v>76</v>
       </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C677">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>11</v>
       </c>
       <c r="B678">
         <v>77</v>
       </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C678">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>11</v>
       </c>
       <c r="B679">
         <v>78</v>
       </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C679">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>11</v>
       </c>
       <c r="B680">
         <v>79</v>
       </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C680">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>11</v>
       </c>
       <c r="B681">
         <v>80</v>
       </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C681">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>11</v>
       </c>
       <c r="B682">
         <v>81</v>
       </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C682">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>11</v>
       </c>
       <c r="B683">
         <v>82</v>
       </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C683">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>11</v>
       </c>
       <c r="B684">
         <v>83</v>
       </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>11</v>
       </c>
       <c r="B685">
         <v>84</v>
       </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>11</v>
       </c>
       <c r="B686">
         <v>85</v>
       </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C686">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>11</v>
       </c>
       <c r="B687">
         <v>86</v>
       </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>11</v>
       </c>
       <c r="B688">
         <v>87</v>
+      </c>
+      <c r="C688">
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.3">
@@ -8437,6 +8668,9 @@
       <c r="B689">
         <v>88</v>
       </c>
+      <c r="C689">
+        <v>2</v>
+      </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
@@ -8445,6 +8679,9 @@
       <c r="B690">
         <v>89</v>
       </c>
+      <c r="C690">
+        <v>3</v>
+      </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
@@ -8453,6 +8690,9 @@
       <c r="B691">
         <v>90</v>
       </c>
+      <c r="C691">
+        <v>4</v>
+      </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
@@ -8461,6 +8701,9 @@
       <c r="B692">
         <v>91</v>
       </c>
+      <c r="C692">
+        <v>1</v>
+      </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
@@ -8469,6 +8712,9 @@
       <c r="B693">
         <v>92</v>
       </c>
+      <c r="C693">
+        <v>2</v>
+      </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
@@ -8477,6 +8723,9 @@
       <c r="B694">
         <v>93</v>
       </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
@@ -8485,6 +8734,9 @@
       <c r="B695">
         <v>94</v>
       </c>
+      <c r="C695">
+        <v>7</v>
+      </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
@@ -8493,6 +8745,9 @@
       <c r="B696">
         <v>95</v>
       </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
@@ -8501,6 +8756,9 @@
       <c r="B697">
         <v>96</v>
       </c>
+      <c r="C697">
+        <v>9</v>
+      </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
@@ -8509,6 +8767,9 @@
       <c r="B698">
         <v>97</v>
       </c>
+      <c r="C698">
+        <v>3</v>
+      </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
@@ -8517,6 +8778,9 @@
       <c r="B699">
         <v>98</v>
       </c>
+      <c r="C699">
+        <v>3</v>
+      </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
@@ -8525,6 +8789,9 @@
       <c r="B700">
         <v>99</v>
       </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
@@ -8533,6 +8800,9 @@
       <c r="B701">
         <v>100</v>
       </c>
+      <c r="C701">
+        <v>5</v>
+      </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
@@ -8681,6 +8951,9 @@
       <c r="B712">
         <v>11</v>
       </c>
+      <c r="C712">
+        <v>8</v>
+      </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
@@ -8689,6 +8962,9 @@
       <c r="B713">
         <v>12</v>
       </c>
+      <c r="C713">
+        <v>8</v>
+      </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
@@ -8697,6 +8973,9 @@
       <c r="B714">
         <v>13</v>
       </c>
+      <c r="C714">
+        <v>1</v>
+      </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
@@ -8705,6 +8984,9 @@
       <c r="B715">
         <v>14</v>
       </c>
+      <c r="C715">
+        <v>4</v>
+      </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
@@ -8713,6 +8995,9 @@
       <c r="B716">
         <v>15</v>
       </c>
+      <c r="C716">
+        <v>8</v>
+      </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
@@ -8721,6 +9006,9 @@
       <c r="B717">
         <v>16</v>
       </c>
+      <c r="C717">
+        <v>4</v>
+      </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
@@ -8729,6 +9017,9 @@
       <c r="B718">
         <v>17</v>
       </c>
+      <c r="C718">
+        <v>4</v>
+      </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
@@ -8737,6 +9028,9 @@
       <c r="B719">
         <v>18</v>
       </c>
+      <c r="C719">
+        <v>5</v>
+      </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
@@ -8745,645 +9039,888 @@
       <c r="B720">
         <v>19</v>
       </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>12</v>
       </c>
       <c r="B721">
         <v>20</v>
       </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C721">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>12</v>
       </c>
       <c r="B722">
         <v>21</v>
       </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C722">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>12</v>
       </c>
       <c r="B723">
         <v>22</v>
       </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>12</v>
       </c>
       <c r="B724">
         <v>23</v>
       </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C724">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>12</v>
       </c>
       <c r="B725">
         <v>24</v>
       </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C725">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>12</v>
       </c>
       <c r="B726">
         <v>25</v>
       </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>12</v>
       </c>
       <c r="B727">
         <v>26</v>
       </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C727">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>12</v>
       </c>
       <c r="B728">
         <v>27</v>
       </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>12</v>
       </c>
       <c r="B729">
         <v>28</v>
       </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C729">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>12</v>
       </c>
       <c r="B730">
         <v>29</v>
       </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C730">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>12</v>
       </c>
       <c r="B731">
         <v>30</v>
       </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C731">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>12</v>
       </c>
       <c r="B732">
         <v>31</v>
       </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C732">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>12</v>
       </c>
       <c r="B733">
         <v>32</v>
       </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C733">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>12</v>
       </c>
       <c r="B734">
         <v>33</v>
       </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C734">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>12</v>
       </c>
       <c r="B735">
         <v>34</v>
       </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C735">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>12</v>
       </c>
       <c r="B736">
         <v>35</v>
       </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>12</v>
       </c>
       <c r="B737">
         <v>36</v>
       </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C737">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>12</v>
       </c>
       <c r="B738">
         <v>37</v>
       </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>12</v>
       </c>
       <c r="B739">
         <v>38</v>
       </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>12</v>
       </c>
       <c r="B740">
         <v>39</v>
       </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>12</v>
       </c>
       <c r="B741">
         <v>40</v>
       </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C741">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>12</v>
       </c>
       <c r="B742">
         <v>41</v>
       </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C742">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>12</v>
       </c>
       <c r="B743">
         <v>42</v>
       </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C743">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>12</v>
       </c>
       <c r="B744">
         <v>43</v>
       </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C744">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>12</v>
       </c>
       <c r="B745">
         <v>44</v>
       </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C745">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>12</v>
       </c>
       <c r="B746">
         <v>45</v>
       </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C746">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>12</v>
       </c>
       <c r="B747">
         <v>46</v>
       </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C747">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>12</v>
       </c>
       <c r="B748">
         <v>47</v>
       </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C748">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>12</v>
       </c>
       <c r="B749">
         <v>48</v>
       </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>12</v>
       </c>
       <c r="B750">
         <v>49</v>
       </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>12</v>
       </c>
       <c r="B751">
         <v>50</v>
       </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C751">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>12</v>
       </c>
       <c r="B752">
         <v>51</v>
       </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C752">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>12</v>
       </c>
       <c r="B753">
         <v>52</v>
       </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C753">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>12</v>
       </c>
       <c r="B754">
         <v>53</v>
       </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C754">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>12</v>
       </c>
       <c r="B755">
         <v>54</v>
       </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C755">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>12</v>
       </c>
       <c r="B756">
         <v>55</v>
       </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C756">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>12</v>
       </c>
       <c r="B757">
         <v>56</v>
       </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C757">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>12</v>
       </c>
       <c r="B758">
         <v>57</v>
       </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C758">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>12</v>
       </c>
       <c r="B759">
         <v>58</v>
       </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C759">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>12</v>
       </c>
       <c r="B760">
         <v>59</v>
       </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C760">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>12</v>
       </c>
       <c r="B761">
         <v>60</v>
       </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>12</v>
       </c>
       <c r="B762">
         <v>61</v>
       </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C762">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>12</v>
       </c>
       <c r="B763">
         <v>62</v>
       </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>12</v>
       </c>
       <c r="B764">
         <v>63</v>
       </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C764">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>12</v>
       </c>
       <c r="B765">
         <v>64</v>
       </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C765">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>12</v>
       </c>
       <c r="B766">
         <v>65</v>
       </c>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C766">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>12</v>
       </c>
       <c r="B767">
         <v>66</v>
       </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C767">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>12</v>
       </c>
       <c r="B768">
         <v>67</v>
       </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C768">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>12</v>
       </c>
       <c r="B769">
         <v>68</v>
       </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C769">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>12</v>
       </c>
       <c r="B770">
         <v>69</v>
       </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C770">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>12</v>
       </c>
       <c r="B771">
         <v>70</v>
       </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C771">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>12</v>
       </c>
       <c r="B772">
         <v>71</v>
       </c>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>12</v>
       </c>
       <c r="B773">
         <v>72</v>
       </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C773">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>12</v>
       </c>
       <c r="B774">
         <v>73</v>
       </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C774">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>12</v>
       </c>
       <c r="B775">
         <v>74</v>
       </c>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C775">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>12</v>
       </c>
       <c r="B776">
         <v>75</v>
       </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C776">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>12</v>
       </c>
       <c r="B777">
         <v>76</v>
       </c>
-    </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C777">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>12</v>
       </c>
       <c r="B778">
         <v>77</v>
       </c>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C778">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>12</v>
       </c>
       <c r="B779">
         <v>78</v>
       </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C779">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>12</v>
       </c>
       <c r="B780">
         <v>79</v>
       </c>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C780">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>12</v>
       </c>
       <c r="B781">
         <v>80</v>
       </c>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C781">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>12</v>
       </c>
       <c r="B782">
         <v>81</v>
       </c>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C782">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>12</v>
       </c>
       <c r="B783">
         <v>82</v>
       </c>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>12</v>
       </c>
       <c r="B784">
         <v>83</v>
       </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>12</v>
       </c>
       <c r="B785">
         <v>84</v>
       </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C785">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>12</v>
       </c>
       <c r="B786">
         <v>85</v>
       </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C786">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>12</v>
       </c>
       <c r="B787">
         <v>86</v>
       </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>12</v>
       </c>
       <c r="B788">
         <v>87</v>
       </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C788">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>12</v>
       </c>
       <c r="B789">
         <v>88</v>
       </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C789">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>12</v>
       </c>
       <c r="B790">
         <v>89</v>
       </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C790">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>12</v>
       </c>
       <c r="B791">
         <v>90</v>
       </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>12</v>
       </c>
       <c r="B792">
         <v>91</v>
       </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>12</v>
       </c>
       <c r="B793">
         <v>92</v>
       </c>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>12</v>
       </c>
       <c r="B794">
         <v>93</v>
       </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>12</v>
       </c>
       <c r="B795">
         <v>94</v>
       </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C795">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>12</v>
       </c>
       <c r="B796">
         <v>95</v>
       </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C796">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>12</v>
       </c>
       <c r="B797">
         <v>96</v>
       </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C797">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>12</v>
       </c>
       <c r="B798">
         <v>97</v>
       </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C798">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>12</v>
       </c>
       <c r="B799">
         <v>98</v>
       </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C799">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>12</v>
       </c>
       <c r="B800">
         <v>99</v>
+      </c>
+      <c r="C800">
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.3">
@@ -9392,6 +9929,9 @@
       </c>
       <c r="B801">
         <v>100</v>
+      </c>
+      <c r="C801">
+        <v>4</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.3">
